--- a/Gerenciamento de Projeto/AGP - Planejamento e Controle do Projeto.xlsx
+++ b/Gerenciamento de Projeto/AGP - Planejamento e Controle do Projeto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81865c34a2c6e569/Documentos/AGPDocsElaboracao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\AGP\Gerenciamento de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="8_{8320AA18-9731-480A-95C9-14E073D12EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26D213B5-712D-41D0-9434-76D8E799FD2D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A466D331-317A-4D65-8914-251ABF9EC501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="797" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="10" r:id="rId1"/>
@@ -2584,7 +2584,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="313">
   <si>
     <t>Iniciação</t>
   </si>
@@ -2719,9 +2719,6 @@
   </si>
   <si>
     <t>Scrum Master</t>
-  </si>
-  <si>
-    <t>Owner</t>
   </si>
   <si>
     <t>Desenvolvedor</t>
@@ -3589,6 +3586,30 @@
   <si>
     <t>Fase de Transição</t>
   </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Atualização do prazo final do projeto (de 13/11 para 02/12)</t>
+  </si>
+  <si>
+    <t>Dia 11</t>
+  </si>
+  <si>
+    <t>Dia 12</t>
+  </si>
+  <si>
+    <t>Dia 13</t>
+  </si>
+  <si>
+    <t>Dia 14</t>
+  </si>
+  <si>
+    <t>Dia 15</t>
+  </si>
 </sst>
 </file>
 
@@ -3601,7 +3622,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3896,12 +3917,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -4327,7 +4342,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4744,6 +4759,10 @@
     <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4826,6 +4845,21 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4847,9 +4881,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4861,18 +4892,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4922,13 +4941,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
@@ -4937,7 +4949,7 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="3" builtinId="3"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
@@ -4973,96 +4985,6 @@
           <bgColor indexed="42"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="54"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="54"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="54"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="54"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="54"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="54"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -6872,22 +6794,22 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6895,7 +6817,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B5B1-497F-8FA7-18FA2E83588C}"/>
+              <c16:uniqueId val="{00000000-3EFB-490A-9E75-612BA97D3FF6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7017,7 +6939,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B5B1-497F-8FA7-18FA2E83588C}"/>
+              <c16:uniqueId val="{00000001-3EFB-490A-9E75-612BA97D3FF6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11681,23 +11603,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8F7E51-B09C-48D2-8AD8-D526521F99FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD8DA476-C4FE-4A7F-AA40-DEC325913222}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12924,7 +12846,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12935,28 +12857,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
+      <c r="A2" s="147" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -12964,43 +12886,43 @@
         <v>44</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" s="144" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="144" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C7" s="144" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -13071,10 +12993,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641FF746-3179-470D-81E5-61C6C09B1755}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13083,17 +13005,16 @@
     <col min="2" max="2" width="10" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="7" style="3" customWidth="1"/>
-    <col min="13" max="13" width="1.42578125" customWidth="1"/>
+    <col min="5" max="13" width="7" style="3" customWidth="1"/>
     <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="42">
         <v>45580</v>
@@ -13125,10 +13046,25 @@
       <c r="L1" s="41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="128">
         <v>1</v>
@@ -13145,17 +13081,22 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="135" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B3" s="128">
         <v>1</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -13165,10 +13106,15 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="136" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" s="128">
         <v>2</v>
@@ -13185,10 +13131,15 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="136" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B5" s="128">
         <v>3</v>
@@ -13197,7 +13148,9 @@
         <v>1</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="15">
+        <v>2</v>
+      </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -13205,39 +13158,47 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="136" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" s="128">
         <v>2</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="15">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15">
         <v>2</v>
       </c>
-      <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="136" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" s="128">
         <v>1</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="15">
-        <v>2</v>
-      </c>
+      <c r="E7" s="15"/>
       <c r="F7" s="15">
         <v>1</v>
       </c>
@@ -13247,30 +13208,40 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="135" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B8" s="128">
         <v>2</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="15">
+        <v>2</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="15">
-        <v>2</v>
-      </c>
+      <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="128">
         <v>2</v>
@@ -13278,39 +13249,53 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="15">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="H9" s="15">
+        <v>1</v>
+      </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" s="128">
         <v>5</v>
       </c>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="H10" s="15">
+        <v>3</v>
+      </c>
+      <c r="I10" s="15">
+        <v>2</v>
+      </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="136" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B11" s="128">
         <v>3</v>
@@ -13319,16 +13304,25 @@
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="204"/>
+      <c r="G11" s="145"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15">
+        <v>2</v>
+      </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" s="128">
         <v>2</v>
@@ -13341,17 +13335,26 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
+      <c r="K12" s="15">
+        <v>2</v>
+      </c>
       <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="135" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B13" s="128">
         <v>1</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -13361,10 +13364,15 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="136" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B14" s="128">
         <v>2</v>
@@ -13377,12 +13385,21 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K14" s="15">
+        <v>1</v>
+      </c>
+      <c r="L14" s="15">
+        <v>1</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="136" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B15" s="128">
         <v>3</v>
@@ -13397,10 +13414,19 @@
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="15">
+        <v>2</v>
+      </c>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" s="128">
         <v>2</v>
@@ -13415,10 +13441,19 @@
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15">
+        <v>1</v>
+      </c>
+      <c r="P16" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="15"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="136" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B17" s="128">
         <v>1</v>
@@ -13433,8 +13468,15 @@
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>30</v>
       </c>
@@ -13444,47 +13486,66 @@
       </c>
       <c r="C18" s="37">
         <f>IF(SUM(C2:C17)&gt;0,B18-SUM(C2:C17), "")</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="37">
         <f t="shared" ref="D18:K18" si="0">IF(SUM(D2:D17)&gt;0,C18-SUM(D2:D17), "")</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="37">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G18" s="37" t="str">
+        <v>20</v>
+      </c>
+      <c r="G18" s="37">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H18" s="37" t="str">
+        <v>19</v>
+      </c>
+      <c r="H18" s="37">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I18" s="37" t="str">
+        <v>15</v>
+      </c>
+      <c r="I18" s="37">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J18" s="37" t="str">
+        <v>12</v>
+      </c>
+      <c r="J18" s="37">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K18" s="37" t="str">
+        <v>10</v>
+      </c>
+      <c r="K18" s="37">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L18" s="37" t="str">
+        <v>7</v>
+      </c>
+      <c r="L18" s="37">
         <f>IF(SUM(L2:L17)&gt;0,K18-SUM(L2:L17), "")</f>
-        <v/>
-      </c>
-      <c r="M18" s="32"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="M18" s="37">
+        <f>IF(SUM(M2:M17)&gt;0,L18-SUM(M2:M17), "")</f>
+        <v>5</v>
+      </c>
+      <c r="N18" s="37">
+        <f t="shared" ref="N18:Q18" si="1">IF(SUM(N2:N17)&gt;0,M18-SUM(N2:N17), "")</f>
+        <v>3</v>
+      </c>
+      <c r="O18" s="37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P18" s="37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>31</v>
       </c>
@@ -13493,49 +13554,69 @@
         <v>33</v>
       </c>
       <c r="C19" s="35">
-        <f>B19-($B$19/COUNTA($C$1:$L$1))</f>
+        <f t="shared" ref="C19:Q19" si="2">B19-($B$19/COUNTA($C$1:$L$1))</f>
         <v>29.7</v>
       </c>
       <c r="D19" s="35">
-        <f>C19-($B$19/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="2"/>
         <v>26.4</v>
       </c>
       <c r="E19" s="35">
-        <f>D19-($B$19/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="2"/>
         <v>23.099999999999998</v>
       </c>
       <c r="F19" s="35">
-        <f>E19-($B$19/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="2"/>
         <v>19.799999999999997</v>
       </c>
       <c r="G19" s="35">
-        <f>F19-($B$19/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="2"/>
         <v>16.499999999999996</v>
       </c>
       <c r="H19" s="35">
-        <f>G19-($B$19/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="2"/>
         <v>13.199999999999996</v>
       </c>
       <c r="I19" s="35">
-        <f>H19-($B$19/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="2"/>
         <v>9.899999999999995</v>
       </c>
       <c r="J19" s="35">
-        <f>I19-($B$19/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="2"/>
         <v>6.5999999999999952</v>
       </c>
       <c r="K19" s="35">
-        <f>J19-($B$19/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="2"/>
         <v>3.2999999999999954</v>
       </c>
       <c r="L19" s="35">
-        <f>K19-($B$19/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="2"/>
         <v>-4.4408920985006262E-15</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M19" s="35">
+        <f t="shared" si="2"/>
+        <v>-3.3000000000000043</v>
+      </c>
+      <c r="N19" s="35">
+        <f t="shared" si="2"/>
+        <v>-6.6000000000000041</v>
+      </c>
+      <c r="O19" s="35">
+        <f t="shared" si="2"/>
+        <v>-9.9000000000000039</v>
+      </c>
+      <c r="P19" s="35">
+        <f t="shared" si="2"/>
+        <v>-13.200000000000003</v>
+      </c>
+      <c r="Q19" s="35">
+        <f t="shared" si="2"/>
+        <v>-16.500000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="39">
         <f ca="1">OFFSET(Sprint4!$B$18,0,0,1,COUNT(Sprint4!$B$18:$L$18))</f>
@@ -13543,48 +13624,68 @@
       </c>
       <c r="C20" s="39">
         <f ca="1">OFFSET(Sprint4!$B$18,0,0,1,COUNT(Sprint4!$B$18:$L$18))</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="39">
         <f ca="1">OFFSET(Sprint4!$B$18,0,0,1,COUNT(Sprint4!$B$18:$L$18))</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="39">
         <f ca="1">OFFSET(Sprint4!$B$18,0,0,1,COUNT(Sprint4!$B$18:$L$18))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20" s="39">
         <f ca="1">OFFSET(Sprint4!$B$18,0,0,1,COUNT(Sprint4!$B$18:$L$18))</f>
-        <v>18</v>
-      </c>
-      <c r="G20" s="39" t="e">
+        <v>20</v>
+      </c>
+      <c r="G20" s="39">
         <f ca="1">OFFSET(Sprint4!$B$18,0,0,1,COUNT(Sprint4!$B$18:$L$18))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H20" s="39" t="e">
+        <v>19</v>
+      </c>
+      <c r="H20" s="39">
         <f ca="1">OFFSET(Sprint4!$B$18,0,0,1,COUNT(Sprint4!$B$18:$L$18))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I20" s="39" t="e">
+        <v>15</v>
+      </c>
+      <c r="I20" s="39">
         <f ca="1">OFFSET(Sprint4!$B$18,0,0,1,COUNT(Sprint4!$B$18:$L$18))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J20" s="39" t="e">
+        <v>12</v>
+      </c>
+      <c r="J20" s="39">
         <f ca="1">OFFSET(Sprint4!$B$18,0,0,1,COUNT(Sprint4!$B$18:$L$18))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K20" s="39" t="e">
+        <v>10</v>
+      </c>
+      <c r="K20" s="39">
         <f ca="1">OFFSET(Sprint4!$B$18,0,0,1,COUNT(Sprint4!$B$18:$L$18))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L20" s="39" t="e">
-        <f ca="1">OFFSET(Sprint4!$B$18,0,0,1,COUNT(Sprint4!$B$18:$L$18))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L20" s="39">
+        <f>C18</f>
+        <v>28</v>
+      </c>
+      <c r="M20" s="39">
+        <f t="shared" ref="M20:Q20" si="3">D18</f>
+        <v>25</v>
+      </c>
+      <c r="N20" s="39">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="O20" s="39">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="P20" s="39">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="Q20" s="39">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="40">
         <f ca="1">B20/$B$19</f>
@@ -13592,48 +13693,68 @@
       </c>
       <c r="C21" s="40">
         <f ca="1">100%-(C20/$B$19)</f>
-        <v>9.0909090909090939E-2</v>
+        <v>0.15151515151515149</v>
       </c>
       <c r="D21" s="40">
-        <f t="shared" ref="D21:L21" ca="1" si="1">100%-(D20/$B$19)</f>
-        <v>0.21212121212121215</v>
+        <f t="shared" ref="D21:Q21" ca="1" si="4">100%-(D20/$B$19)</f>
+        <v>0.24242424242424243</v>
       </c>
       <c r="E21" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.33333333333333337</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.30303030303030298</v>
       </c>
       <c r="F21" s="40">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.45454545454545459</v>
-      </c>
-      <c r="G21" s="40" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H21" s="40" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I21" s="40" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J21" s="40" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K21" s="40" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L21" s="40" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="G21" s="40">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.4242424242424242</v>
+      </c>
+      <c r="H21" s="40">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="I21" s="40">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="J21" s="40">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="K21" s="40">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.78787878787878785</v>
+      </c>
+      <c r="L21" s="40">
+        <f t="shared" si="4"/>
+        <v>0.15151515151515149</v>
+      </c>
+      <c r="M21" s="40">
+        <f t="shared" si="4"/>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="N21" s="40">
+        <f t="shared" si="4"/>
+        <v>0.30303030303030298</v>
+      </c>
+      <c r="O21" s="40">
+        <f t="shared" si="4"/>
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="P21" s="40">
+        <f t="shared" si="4"/>
+        <v>0.4242424242424242</v>
+      </c>
+      <c r="Q21" s="40">
+        <f t="shared" si="4"/>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="43">
         <v>36</v>
@@ -13642,12 +13763,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N25" s="14" t="s">
         <v>42</v>
       </c>
       <c r="O25" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -13682,7 +13803,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="42">
         <v>45567</v>
@@ -13717,7 +13838,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="128">
         <v>1</v>
@@ -13735,7 +13856,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="135" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" s="128">
         <v>2</v>
@@ -13753,7 +13874,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="136" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B4" s="128">
         <v>2</v>
@@ -13771,7 +13892,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="136" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B5" s="128">
         <v>3</v>
@@ -13789,7 +13910,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="136" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B6" s="128">
         <v>2</v>
@@ -13807,7 +13928,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="136" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B7" s="128">
         <v>1</v>
@@ -13825,7 +13946,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="135" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B8" s="128">
         <v>1</v>
@@ -13843,7 +13964,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="136" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B9" s="128">
         <v>1</v>
@@ -13861,7 +13982,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" s="128">
         <v>2</v>
@@ -13879,7 +14000,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B11" s="128">
         <v>1</v>
@@ -13897,7 +14018,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="136" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B12" s="128">
         <v>1</v>
@@ -13915,7 +14036,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="120" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="128">
         <v>3</v>
@@ -13933,7 +14054,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" s="128">
         <v>2</v>
@@ -13958,43 +14079,43 @@
         <v>22</v>
       </c>
       <c r="C15" s="37" t="str">
-        <f>IF(SUM(C2:C14)&gt;0,B15-SUM(C2:C14), "")</f>
+        <f t="shared" ref="C15:L15" si="0">IF(SUM(C2:C14)&gt;0,B15-SUM(C2:C14), "")</f>
         <v/>
       </c>
       <c r="D15" s="37" t="str">
-        <f>IF(SUM(D2:D14)&gt;0,C15-SUM(D2:D14), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E15" s="37" t="str">
-        <f>IF(SUM(E2:E14)&gt;0,D15-SUM(E2:E14), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F15" s="37" t="str">
-        <f>IF(SUM(F2:F14)&gt;0,E15-SUM(F2:F14), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G15" s="37" t="str">
-        <f>IF(SUM(G2:G14)&gt;0,F15-SUM(G2:G14), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H15" s="37" t="str">
-        <f>IF(SUM(H2:H14)&gt;0,G15-SUM(H2:H14), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I15" s="37" t="str">
-        <f>IF(SUM(I2:I14)&gt;0,H15-SUM(I2:I14), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J15" s="37" t="str">
-        <f>IF(SUM(J2:J14)&gt;0,I15-SUM(J2:J14), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K15" s="37" t="str">
-        <f>IF(SUM(K2:K14)&gt;0,J15-SUM(K2:K14), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L15" s="37" t="str">
-        <f>IF(SUM(L2:L14)&gt;0,K15-SUM(L2:L14), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M15" s="32"/>
@@ -14008,49 +14129,49 @@
         <v>22</v>
       </c>
       <c r="C16" s="35">
-        <f>B16-($B$16/COUNTA($C$1:$L$1))</f>
+        <f t="shared" ref="C16:L16" si="1">B16-($B$16/COUNTA($C$1:$L$1))</f>
         <v>19.8</v>
       </c>
       <c r="D16" s="35">
-        <f>C16-($B$16/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>17.600000000000001</v>
       </c>
       <c r="E16" s="35">
-        <f>D16-($B$16/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>15.400000000000002</v>
       </c>
       <c r="F16" s="35">
-        <f>E16-($B$16/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>13.200000000000003</v>
       </c>
       <c r="G16" s="35">
-        <f>F16-($B$16/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>11.000000000000004</v>
       </c>
       <c r="H16" s="35">
-        <f>G16-($B$16/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>8.8000000000000043</v>
       </c>
       <c r="I16" s="35">
-        <f>H16-($B$16/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>6.6000000000000041</v>
       </c>
       <c r="J16" s="35">
-        <f>I16-($B$16/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>4.4000000000000039</v>
       </c>
       <c r="K16" s="35">
-        <f>J16-($B$16/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>2.2000000000000037</v>
       </c>
       <c r="L16" s="35">
-        <f>K16-($B$16/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>3.5527136788005009E-15</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="39">
         <f ca="1">OFFSET(Sprint5!$B$15,0,0,1,COUNT(Sprint5!$B$15:$L$15))</f>
@@ -14099,7 +14220,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="40">
         <f ca="1">B17/$B$16</f>
@@ -14110,45 +14231,45 @@
         <v>0</v>
       </c>
       <c r="D18" s="40">
-        <f t="shared" ref="D18:L18" ca="1" si="0">100%-(D17/$B$16)</f>
+        <f t="shared" ref="D18:L18" ca="1" si="2">100%-(D17/$B$16)</f>
         <v>0</v>
       </c>
       <c r="E18" s="40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="F18" s="40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H18" s="40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I18" s="40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J18" s="40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K18" s="40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="L18" s="40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="43">
         <v>24</v>
@@ -14162,7 +14283,7 @@
         <v>42</v>
       </c>
       <c r="O22" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -14197,7 +14318,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="42">
         <v>45567</v>
@@ -14232,7 +14353,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="128">
         <v>1</v>
@@ -14250,7 +14371,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="120" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="128">
         <v>2</v>
@@ -14268,7 +14389,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="128">
         <v>5</v>
@@ -14286,7 +14407,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="120" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" s="128">
         <v>20</v>
@@ -14304,7 +14425,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="117" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="128">
         <v>2</v>
@@ -14322,7 +14443,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="117" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="128">
         <v>3</v>
@@ -14340,7 +14461,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="117" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8" s="128">
         <v>3</v>
@@ -14358,7 +14479,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="117" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B9" s="128">
         <v>1</v>
@@ -14376,7 +14497,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="120" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="128">
         <v>3</v>
@@ -14401,43 +14522,43 @@
         <v>40</v>
       </c>
       <c r="C11" s="37" t="str">
-        <f>IF(SUM(C2:C10)&gt;0,B11-SUM(C2:C10), "")</f>
+        <f t="shared" ref="C11:L11" si="0">IF(SUM(C2:C10)&gt;0,B11-SUM(C2:C10), "")</f>
         <v/>
       </c>
       <c r="D11" s="37" t="str">
-        <f>IF(SUM(D2:D10)&gt;0,C11-SUM(D2:D10), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E11" s="37" t="str">
-        <f>IF(SUM(E2:E10)&gt;0,D11-SUM(E2:E10), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F11" s="37" t="str">
-        <f>IF(SUM(F2:F10)&gt;0,E11-SUM(F2:F10), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G11" s="37" t="str">
-        <f>IF(SUM(G2:G10)&gt;0,F11-SUM(G2:G10), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H11" s="37" t="str">
-        <f>IF(SUM(H2:H10)&gt;0,G11-SUM(H2:H10), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I11" s="37" t="str">
-        <f>IF(SUM(I2:I10)&gt;0,H11-SUM(I2:I10), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J11" s="37" t="str">
-        <f>IF(SUM(J2:J10)&gt;0,I11-SUM(J2:J10), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K11" s="37" t="str">
-        <f>IF(SUM(K2:K10)&gt;0,J11-SUM(K2:K10), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L11" s="37" t="str">
-        <f>IF(SUM(L2:L10)&gt;0,K11-SUM(L2:L10), "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M11" s="32"/>
@@ -14451,49 +14572,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="35">
-        <f>B12-($B$12/COUNTA($C$1:$L$1))</f>
+        <f t="shared" ref="C12:L12" si="1">B12-($B$12/COUNTA($C$1:$L$1))</f>
         <v>36</v>
       </c>
       <c r="D12" s="35">
-        <f>C12-($B$12/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="E12" s="35">
-        <f>D12-($B$12/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="F12" s="35">
-        <f>E12-($B$12/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="G12" s="35">
-        <f>F12-($B$12/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H12" s="35">
-        <f>G12-($B$12/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I12" s="35">
-        <f>H12-($B$12/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J12" s="35">
-        <f>I12-($B$12/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K12" s="35">
-        <f>J12-($B$12/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L12" s="35">
-        <f>K12-($B$12/COUNTA($C$1:$L$1))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="39">
         <f ca="1">OFFSET(Sprint6!$B$11,0,0,1,COUNT(Sprint6!$B$11:$L$11))</f>
@@ -14542,7 +14663,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="40">
         <f ca="1">B13/$B$12</f>
@@ -14553,45 +14674,45 @@
         <v>0</v>
       </c>
       <c r="D14" s="40">
-        <f t="shared" ref="D14:L14" ca="1" si="0">100%-(D13/$B$12)</f>
+        <f t="shared" ref="D14:L14" ca="1" si="2">100%-(D13/$B$12)</f>
         <v>0</v>
       </c>
       <c r="E14" s="40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="F14" s="40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G14" s="40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H14" s="40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I14" s="40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J14" s="40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K14" s="40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="43">
         <v>48</v>
@@ -14605,7 +14726,7 @@
         <v>42</v>
       </c>
       <c r="O18" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -14643,167 +14764,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="54" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="195" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
+      <c r="A1" s="196" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
     </row>
     <row r="2" spans="1:23" s="98" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="196" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
+      <c r="A2" s="197" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
     </row>
     <row r="3" spans="1:23" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="198" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="198"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="198"/>
+    </row>
+    <row r="4" spans="1:23" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="199" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="199"/>
+    </row>
+    <row r="5" spans="1:23" s="98" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="200" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="197"/>
-    </row>
-    <row r="4" spans="1:23" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="198" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="198"/>
-      <c r="K4" s="198"/>
-      <c r="L4" s="198"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-    </row>
-    <row r="5" spans="1:23" s="98" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="199" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="199"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="199"/>
+      <c r="B5" s="200"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="200"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
     </row>
     <row r="6" spans="1:23" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="193" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="194"/>
-      <c r="D7" s="193" t="s">
+      <c r="A7" s="194" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="195"/>
+      <c r="D7" s="194" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="195"/>
+      <c r="G7" s="190" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="190"/>
+      <c r="M7" s="194" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="194"/>
-      <c r="G7" s="189" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="189"/>
-      <c r="M7" s="193" t="s">
-        <v>173</v>
-      </c>
-      <c r="N7" s="194"/>
+      <c r="N7" s="195"/>
     </row>
     <row r="8" spans="1:23" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="99" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="100" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="H8" s="99" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="100" t="s">
-        <v>150</v>
-      </c>
-      <c r="K8" s="100" t="s">
-        <v>142</v>
-      </c>
       <c r="M8" s="100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N8" s="100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G9" s="99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H9" s="97">
         <v>2</v>
@@ -14819,21 +14940,21 @@
         <v>8</v>
       </c>
       <c r="M9" s="103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N9" s="105"/>
     </row>
     <row r="10" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="97"/>
       <c r="E10" s="101"/>
       <c r="G10" s="99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H10" s="97"/>
       <c r="I10" s="97"/>
@@ -14843,7 +14964,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N10" s="105"/>
     </row>
@@ -14852,15 +14973,15 @@
       <c r="B11" s="101"/>
       <c r="D11" s="97"/>
       <c r="E11" s="101"/>
-      <c r="G11" s="189" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="189"/>
+      <c r="G11" s="190" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
       <c r="M11" s="103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N11" s="105"/>
     </row>
@@ -14870,22 +14991,22 @@
       <c r="D12" s="97"/>
       <c r="E12" s="101"/>
       <c r="G12" s="99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H12" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="I12" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="100" t="s">
-        <v>150</v>
-      </c>
       <c r="K12" s="100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M12" s="103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N12" s="105"/>
     </row>
@@ -14895,7 +15016,7 @@
       <c r="D13" s="97"/>
       <c r="E13" s="101"/>
       <c r="G13" s="99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13" s="97">
         <v>1</v>
@@ -14907,11 +15028,11 @@
         <v>3</v>
       </c>
       <c r="M13" s="103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N13" s="105"/>
       <c r="W13" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14920,7 +15041,7 @@
       <c r="D14" s="97"/>
       <c r="E14" s="101"/>
       <c r="G14" s="99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H14" s="97"/>
       <c r="I14" s="97"/>
@@ -14930,7 +15051,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N14" s="105"/>
     </row>
@@ -14940,7 +15061,7 @@
       <c r="D15" s="97"/>
       <c r="E15" s="101"/>
       <c r="G15" s="99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H15" s="97">
         <v>1</v>
@@ -14952,7 +15073,7 @@
         <v>3</v>
       </c>
       <c r="M15" s="103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N15" s="105"/>
     </row>
@@ -14961,18 +15082,18 @@
       <c r="B16" s="101"/>
       <c r="D16" s="97"/>
       <c r="E16" s="101"/>
-      <c r="G16" s="190" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="191"/>
-      <c r="I16" s="191"/>
-      <c r="J16" s="192"/>
+      <c r="G16" s="191" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="193"/>
       <c r="K16" s="102">
         <f>SUM(K9,K10,K13,K14,K15)</f>
         <v>14</v>
       </c>
       <c r="M16" s="103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N16" s="105"/>
     </row>
@@ -14982,7 +15103,7 @@
       <c r="D17" s="97"/>
       <c r="E17" s="101"/>
       <c r="M17" s="103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N17" s="105"/>
     </row>
@@ -14992,7 +15113,7 @@
       <c r="D18" s="97"/>
       <c r="E18" s="101"/>
       <c r="M18" s="103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N18" s="105"/>
     </row>
@@ -15002,7 +15123,7 @@
       <c r="D19" s="97"/>
       <c r="E19" s="101"/>
       <c r="M19" s="103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N19" s="105"/>
     </row>
@@ -15012,25 +15133,25 @@
       <c r="D20" s="97"/>
       <c r="E20" s="101"/>
       <c r="M20" s="103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N20" s="105"/>
     </row>
     <row r="21" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="M21" s="103" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N21" s="105"/>
     </row>
     <row r="22" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="M22" s="103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N22" s="105"/>
     </row>
     <row r="23" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="M23" s="104" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N23" s="106">
         <f>SUM(N9:N22)</f>
@@ -15039,7 +15160,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M24" s="104" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N24" s="102">
         <f>(N23*0.01)+0.65</f>
@@ -15048,7 +15169,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M25" s="104" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N25" s="107">
         <f>K16*N24</f>
@@ -15057,7 +15178,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M26" s="104" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N26" s="108">
         <v>19</v>
@@ -15065,7 +15186,7 @@
     </row>
     <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="M27" s="109" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N27" s="110">
         <f>N25*N26</f>
@@ -15128,46 +15249,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="195" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
+      <c r="A1" s="196" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
     </row>
     <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="201" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="E3" s="188" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
+      <c r="A3" s="202" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="E3" s="189" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="129">
         <f>'#Estimativa-APF#'!$N$27</f>
@@ -15176,61 +15297,61 @@
       <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="202" t="s">
+      <c r="E4" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="200" t="s">
+      <c r="F4" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="200"/>
-      <c r="H4" s="200" t="s">
+      <c r="G4" s="201"/>
+      <c r="H4" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200" t="s">
+      <c r="I4" s="201"/>
+      <c r="J4" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="200"/>
-      <c r="L4" s="200" t="s">
+      <c r="K4" s="201"/>
+      <c r="L4" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="200"/>
+      <c r="M4" s="201"/>
       <c r="N4" s="115"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="26">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="202"/>
-      <c r="F5" s="200" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="203"/>
+      <c r="F5" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200" t="s">
+      <c r="G5" s="201"/>
+      <c r="H5" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="200"/>
-      <c r="J5" s="200" t="s">
+      <c r="I5" s="201"/>
+      <c r="J5" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="200"/>
-      <c r="L5" s="200" t="s">
+      <c r="K5" s="201"/>
+      <c r="L5" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="200"/>
+      <c r="M5" s="201"/>
       <c r="N5" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="130">
         <f>B4+(B4*B5)</f>
@@ -15239,7 +15360,7 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="202"/>
+      <c r="E6" s="203"/>
       <c r="F6" s="111">
         <f>B6*G6</f>
         <v>8.6450000000000014</v>
@@ -15316,7 +15437,7 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="15">
         <v>40</v>
@@ -15362,7 +15483,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="15">
         <v>2</v>
@@ -15408,7 +15529,7 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="11">
         <f>(B7*B8)*B9</f>
@@ -15502,14 +15623,14 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="44">
         <f>B11/4</f>
         <v>1.0806249999999999</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="50" t="s">
         <v>18</v>
@@ -15550,14 +15671,14 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13" s="49">
         <f>B11/B9</f>
         <v>2.1612499999999999</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>9</v>
@@ -15671,13 +15792,13 @@
       <c r="N15" s="50"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="201" t="s">
+      <c r="A16" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="201"/>
-      <c r="C16" s="201"/>
+      <c r="B16" s="202"/>
+      <c r="C16" s="202"/>
       <c r="E16" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16" s="113">
         <f>F12+F15</f>
@@ -15852,23 +15973,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
+      <c r="A1" s="148" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
     </row>
     <row r="2" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
+      <c r="A3" s="149" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B4" s="141">
         <f>'Backlog Produto'!$D$76</f>
@@ -15880,18 +16001,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="26">
         <v>0.2</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="15">
         <v>4</v>
@@ -15900,7 +16021,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="15">
         <v>6</v>
@@ -15911,7 +16032,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="139">
         <f>B6*B7*2</f>
@@ -15923,19 +16044,19 @@
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B9" s="138">
         <f>B11/2</f>
         <v>4.1000000000000005</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" s="140">
         <f>B4+(B4*B5)</f>
@@ -15947,7 +16068,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B11" s="139">
         <f>B10/B8*2</f>
@@ -15959,22 +16080,22 @@
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B12" s="138">
         <f>B11/4</f>
         <v>2.0500000000000003</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -16016,7 +16137,7 @@
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B19" s="142">
         <f>B16+B18</f>
@@ -16045,7 +16166,7 @@
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B22" s="142">
         <f>B19+B21</f>
@@ -16069,8 +16190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66:D74"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16089,92 +16210,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="159" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="F1" s="152" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
+      <c r="A1" s="160" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="F1" s="153" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="154" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="F2" s="156" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
+      <c r="A2" s="155" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="F2" s="157" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
     </row>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="133" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="133" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="133" t="s">
-        <v>198</v>
-      </c>
       <c r="D3" s="133" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="133" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="134" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="159" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="133" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="134" t="s">
-        <v>214</v>
-      </c>
-      <c r="H3" s="158" t="s">
-        <v>216</v>
-      </c>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
     </row>
     <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="151"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="126" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="124" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G4" s="124" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H4" s="126" t="s">
+        <v>216</v>
+      </c>
+      <c r="I4" s="126" t="s">
         <v>217</v>
       </c>
-      <c r="I4" s="126" t="s">
+      <c r="J4" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="J4" s="126" t="s">
+      <c r="K4" s="131" t="s">
         <v>219</v>
-      </c>
-      <c r="K4" s="131" t="s">
-        <v>220</v>
       </c>
       <c r="L4" s="126" t="s">
         <v>25</v>
@@ -16188,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" s="128">
         <v>2</v>
@@ -16197,7 +16318,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="117" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H5" s="125">
         <v>5</v>
@@ -16224,7 +16345,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="117" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="128">
         <v>2</v>
@@ -16233,7 +16354,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="117" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H6" s="125">
         <v>4</v>
@@ -16260,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="117" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="128">
         <v>2</v>
@@ -16269,7 +16390,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="117" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H7" s="125">
         <v>5</v>
@@ -16296,7 +16417,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="117" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D8" s="128">
         <v>2</v>
@@ -16305,7 +16426,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="117" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H8" s="125">
         <v>4</v>
@@ -16332,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="117" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D9" s="128">
         <v>2</v>
@@ -16341,7 +16462,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="117" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H9" s="125">
         <v>7</v>
@@ -16368,7 +16489,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="117" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="128">
         <v>2</v>
@@ -16377,7 +16498,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="117" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H10" s="125">
         <v>5</v>
@@ -16397,11 +16518,11 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="150"/>
-      <c r="C11" s="151"/>
+      <c r="B11" s="151"/>
+      <c r="C11" s="152"/>
       <c r="D11" s="126">
         <f>SUM(D5:D10)</f>
         <v>12</v>
@@ -16409,8 +16530,8 @@
       <c r="F11" s="123">
         <v>7</v>
       </c>
-      <c r="G11" s="203" t="s">
-        <v>286</v>
+      <c r="G11" s="117" t="s">
+        <v>285</v>
       </c>
       <c r="H11" s="125">
         <v>5</v>
@@ -16437,7 +16558,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D12" s="128">
         <v>1</v>
@@ -16446,7 +16567,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="117" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H12" s="125">
         <v>4</v>
@@ -16473,7 +16594,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D13" s="128">
         <v>10</v>
@@ -16497,7 +16618,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="120" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D14" s="128">
         <v>2</v>
@@ -16521,7 +16642,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="135" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D15" s="128">
         <v>2</v>
@@ -16545,7 +16666,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="136" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D16" s="128">
         <v>2</v>
@@ -16569,7 +16690,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="136" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D17" s="128">
         <v>4</v>
@@ -16593,7 +16714,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D18" s="128">
         <v>2</v>
@@ -16617,7 +16738,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="120" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D19" s="128">
         <v>5</v>
@@ -16641,7 +16762,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="120" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D20" s="128">
         <v>2</v>
@@ -16662,7 +16783,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D21" s="128">
         <v>2</v>
@@ -16676,11 +16797,11 @@
       <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="151"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="152"/>
       <c r="D22" s="126">
         <f>SUM(D12:D21)</f>
         <v>32</v>
@@ -16701,7 +16822,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="128">
         <v>1</v>
@@ -16722,7 +16843,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D24" s="128">
         <v>2</v>
@@ -16736,7 +16857,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="136" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D25" s="128">
         <v>2</v>
@@ -16750,7 +16871,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="135" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D26" s="128">
         <v>1</v>
@@ -16764,7 +16885,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="136" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D27" s="128">
         <v>2</v>
@@ -16778,7 +16899,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="136" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D28" s="128">
         <v>3</v>
@@ -16792,7 +16913,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="136" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D29" s="128">
         <v>2</v>
@@ -16806,7 +16927,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D30" s="128">
         <v>1</v>
@@ -16820,7 +16941,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="135" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D31" s="128">
         <v>1</v>
@@ -16834,7 +16955,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="136" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D32" s="128">
         <v>2</v>
@@ -16848,7 +16969,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D33" s="128">
         <v>4</v>
@@ -16862,7 +16983,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D34" s="128">
         <v>2</v>
@@ -16876,7 +16997,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D35" s="128">
         <v>2</v>
@@ -16888,7 +17009,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D36" s="128">
         <v>1</v>
@@ -16902,7 +17023,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="135" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D37" s="128">
         <v>1</v>
@@ -16916,7 +17037,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="136" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D38" s="128">
         <v>2</v>
@@ -16930,7 +17051,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="136" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D39" s="128">
         <v>3</v>
@@ -16944,7 +17065,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="136" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D40" s="128">
         <v>2</v>
@@ -16958,7 +17079,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="136" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D41" s="128">
         <v>1</v>
@@ -16972,7 +17093,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="135" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D42" s="128">
         <v>2</v>
@@ -16986,7 +17107,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D43" s="128">
         <v>2</v>
@@ -17000,7 +17121,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D44" s="128">
         <v>5</v>
@@ -17014,7 +17135,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="136" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D45" s="128">
         <v>3</v>
@@ -17028,7 +17149,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D46" s="128">
         <v>2</v>
@@ -17042,7 +17163,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="135" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D47" s="128">
         <v>1</v>
@@ -17056,7 +17177,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="136" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D48" s="128">
         <v>2</v>
@@ -17070,7 +17191,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="136" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D49" s="128">
         <v>3</v>
@@ -17084,7 +17205,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D50" s="128">
         <v>2</v>
@@ -17098,7 +17219,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="136" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D51" s="128">
         <v>1</v>
@@ -17110,7 +17231,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D52" s="128">
         <v>1</v>
@@ -17124,7 +17245,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="135" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D53" s="128">
         <v>2</v>
@@ -17138,7 +17259,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="136" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D54" s="128">
         <v>2</v>
@@ -17152,7 +17273,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="136" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D55" s="128">
         <v>3</v>
@@ -17166,7 +17287,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="136" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D56" s="128">
         <v>2</v>
@@ -17180,7 +17301,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="136" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D57" s="128">
         <v>1</v>
@@ -17194,7 +17315,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="135" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D58" s="128">
         <v>1</v>
@@ -17208,7 +17329,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="136" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D59" s="128">
         <v>1</v>
@@ -17222,7 +17343,7 @@
         <v>2</v>
       </c>
       <c r="C60" s="136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D60" s="128">
         <v>2</v>
@@ -17236,7 +17357,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D61" s="128">
         <v>1</v>
@@ -17250,7 +17371,7 @@
         <v>2</v>
       </c>
       <c r="C62" s="136" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D62" s="128">
         <v>1</v>
@@ -17264,7 +17385,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="120" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D63" s="128">
         <v>3</v>
@@ -17278,18 +17399,18 @@
         <v>2</v>
       </c>
       <c r="C64" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D64" s="128">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="149" t="s">
+      <c r="A65" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="150"/>
-      <c r="C65" s="151"/>
+      <c r="B65" s="151"/>
+      <c r="C65" s="152"/>
       <c r="D65" s="126">
         <f>SUM(D23:D64)</f>
         <v>80</v>
@@ -17303,7 +17424,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="128">
         <v>1</v>
@@ -17317,7 +17438,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="120" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D67" s="128">
         <v>2</v>
@@ -17331,7 +17452,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="120" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D68" s="128">
         <v>5</v>
@@ -17345,7 +17466,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="120" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D69" s="128">
         <v>20</v>
@@ -17359,7 +17480,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="117" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="128">
         <v>2</v>
@@ -17373,7 +17494,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="117" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="128">
         <v>3</v>
@@ -17387,7 +17508,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="117" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="128">
         <v>3</v>
@@ -17401,7 +17522,7 @@
         <v>3</v>
       </c>
       <c r="C73" s="117" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="128">
         <v>1</v>
@@ -17415,16 +17536,16 @@
         <v>3</v>
       </c>
       <c r="C74" s="120" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D74" s="128">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="12" x14ac:dyDescent="0.2">
-      <c r="A75" s="149"/>
-      <c r="B75" s="150"/>
-      <c r="C75" s="151"/>
+      <c r="A75" s="150"/>
+      <c r="B75" s="151"/>
+      <c r="C75" s="152"/>
       <c r="D75" s="126">
         <f>SUM(D66:D74)</f>
         <v>40</v>
@@ -17460,8 +17581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -17478,43 +17599,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="161" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
+      <c r="A1" s="162" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="164" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="166"/>
+      <c r="A2" s="165" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="167"/>
       <c r="C2" s="77" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D2" s="163" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="163"/>
+      <c r="D2" s="164" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="164"/>
       <c r="F2" s="78" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G2" s="164" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="166"/>
+      <c r="G2" s="165" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="77">
         <f>Planejamento!$B$10</f>
         <v>196.8</v>
@@ -17523,55 +17644,55 @@
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="79"/>
       <c r="B3" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" s="167" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
+        <v>299</v>
+      </c>
+      <c r="C3" s="168" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
       <c r="F3" s="81"/>
-      <c r="G3" s="168" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170"/>
+      <c r="G3" s="169" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="170"/>
+      <c r="I3" s="171"/>
       <c r="J3" s="82"/>
       <c r="K3" s="83"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="84" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="84" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K4" s="84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -17579,7 +17700,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" s="88">
         <v>45553</v>
@@ -17591,7 +17712,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G5" s="88">
         <v>45553</v>
@@ -17610,7 +17731,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C6" s="88">
         <v>45560</v>
@@ -17622,7 +17743,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G6" s="88">
         <v>45560</v>
@@ -17641,7 +17762,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7" s="88">
         <v>45572</v>
@@ -17653,7 +17774,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="90" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G7" s="88">
         <v>45572</v>
@@ -17672,25 +17793,29 @@
         <v>4</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8" s="88">
         <v>45579</v>
       </c>
       <c r="D8" s="88">
-        <v>45588</v>
+        <v>45595</v>
       </c>
       <c r="E8" s="89">
         <v>33</v>
       </c>
       <c r="F8" s="90" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G8" s="88">
         <v>45580</v>
       </c>
-      <c r="H8" s="88"/>
-      <c r="I8" s="93"/>
+      <c r="H8" s="88">
+        <v>45595</v>
+      </c>
+      <c r="I8" s="93">
+        <v>33</v>
+      </c>
       <c r="J8" s="94"/>
       <c r="K8" s="92"/>
     </row>
@@ -17699,21 +17824,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C9" s="88">
-        <v>45588</v>
+        <v>45595</v>
       </c>
       <c r="D9" s="88">
-        <v>45595</v>
+        <v>45609</v>
       </c>
       <c r="E9" s="89">
         <v>22</v>
       </c>
       <c r="F9" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="88"/>
+        <v>274</v>
+      </c>
+      <c r="G9" s="88">
+        <v>45596</v>
+      </c>
       <c r="H9" s="88"/>
       <c r="I9" s="93"/>
       <c r="J9" s="94"/>
@@ -17724,19 +17851,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C10" s="88">
-        <v>45595</v>
+        <v>45609</v>
       </c>
       <c r="D10" s="88">
-        <v>45609</v>
+        <v>45628</v>
       </c>
       <c r="E10" s="89">
         <v>40</v>
       </c>
       <c r="F10" s="90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
@@ -17803,7 +17930,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="46">
         <f>SUM(I5:I13)</f>
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="J14" s="47">
         <f>SUM(J5:J13)</f>
@@ -17824,79 +17951,31 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:D13 G10:H13">
-    <cfRule type="expression" dxfId="23" priority="34" stopIfTrue="1">
+  <conditionalFormatting sqref="A5:D13">
+    <cfRule type="expression" dxfId="11" priority="34" stopIfTrue="1">
       <formula>OR($F5="Planned",$F5="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="35" stopIfTrue="1">
       <formula>$F5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F13">
-    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="31" stopIfTrue="1">
       <formula>$F5="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="32" stopIfTrue="1">
       <formula>$F5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="33" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H5 G6 H9">
-    <cfRule type="expression" dxfId="18" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="G5:H13">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>OR($F5="Planned",$F5="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>$F5="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
-      <formula>OR($F6="Planned",$F6="Unplanned")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
-      <formula>$F6="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="14" priority="9" stopIfTrue="1">
-      <formula>OR($F7="Planned",$F7="Unplanned")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="10" stopIfTrue="1">
-      <formula>$F7="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
-      <formula>OR($F7="Planned",$F7="Unplanned")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
-      <formula>$F7="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
-      <formula>OR($F8="Planned",$F8="Unplanned")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
-      <formula>$F8="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
-      <formula>OR($F8="Planned",$F8="Unplanned")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
-      <formula>$F8="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
-      <formula>OR($F9="Planned",$F9="Unplanned")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
-      <formula>$F9="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -18753,183 +18832,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="54" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="161" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
+      <c r="A1" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D3" s="56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D4" s="57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D5" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D6" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D7" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D8" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D9" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D10" s="57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D11" s="57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D12" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D13" s="57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="D14" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D15" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D16" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D17" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D18" s="58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D19" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D20" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D21" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D22" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D23" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D24" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D25" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D26" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D27" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D28" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D29" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D30" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="4:4" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="D31" s="60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D32" s="61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="177" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="171" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="172"/>
+      <c r="E33" s="178"/>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D34" s="62">
         <v>4290</v>
       </c>
       <c r="E34" s="63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
@@ -18937,7 +19016,7 @@
         <v>5082</v>
       </c>
       <c r="E35" s="63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
@@ -18945,7 +19024,7 @@
         <v>4356</v>
       </c>
       <c r="E36" s="63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
@@ -18953,7 +19032,7 @@
         <v>5929</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -18961,7 +19040,7 @@
         <v>5005</v>
       </c>
       <c r="E38" s="63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -18969,147 +19048,147 @@
         <v>4225</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:11" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="179" t="s">
+      <c r="A41" s="184" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="184"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="184"/>
+      <c r="E41" s="184"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="184"/>
+      <c r="H41" s="184"/>
+      <c r="I41" s="184"/>
+      <c r="J41" s="184"/>
+      <c r="K41" s="184"/>
+    </row>
+    <row r="42" spans="1:11" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="179"/>
-      <c r="E41" s="179"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="179"/>
-      <c r="H41" s="179"/>
-      <c r="I41" s="179"/>
-      <c r="J41" s="179"/>
-      <c r="K41" s="179"/>
-    </row>
-    <row r="42" spans="1:11" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="180" t="s">
+      <c r="B42" s="185"/>
+      <c r="C42" s="185"/>
+      <c r="D42" s="185"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="185"/>
+      <c r="G42" s="185"/>
+      <c r="H42" s="185"/>
+      <c r="I42" s="185"/>
+      <c r="J42" s="185"/>
+      <c r="K42" s="185"/>
+    </row>
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="186" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="186"/>
+      <c r="C43" s="186"/>
+      <c r="D43" s="186"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="186"/>
+      <c r="G43" s="186"/>
+      <c r="H43" s="186"/>
+      <c r="I43" s="186"/>
+      <c r="J43" s="186"/>
+      <c r="K43" s="186"/>
+    </row>
+    <row r="44" spans="1:11" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="180"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="180"/>
-      <c r="H42" s="180"/>
-      <c r="I42" s="180"/>
-      <c r="J42" s="180"/>
-      <c r="K42" s="180"/>
-    </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="181" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="181"/>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="181"/>
-      <c r="G43" s="181"/>
-      <c r="H43" s="181"/>
-      <c r="I43" s="181"/>
-      <c r="J43" s="181"/>
-      <c r="K43" s="181"/>
-    </row>
-    <row r="44" spans="1:11" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="182" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="182"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="182"/>
-      <c r="E44" s="182"/>
-      <c r="F44" s="182"/>
-      <c r="G44" s="182"/>
-      <c r="H44" s="182"/>
-      <c r="I44" s="182"/>
-      <c r="J44" s="182"/>
-      <c r="K44" s="182"/>
+      <c r="B44" s="187"/>
+      <c r="C44" s="187"/>
+      <c r="D44" s="187"/>
+      <c r="E44" s="187"/>
+      <c r="F44" s="187"/>
+      <c r="G44" s="187"/>
+      <c r="H44" s="187"/>
+      <c r="I44" s="187"/>
+      <c r="J44" s="187"/>
+      <c r="K44" s="187"/>
     </row>
     <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="173" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="174"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="174"/>
-      <c r="E46" s="174"/>
-      <c r="F46" s="174"/>
-      <c r="G46" s="174"/>
-      <c r="H46" s="174"/>
-      <c r="I46" s="174"/>
-      <c r="J46" s="174"/>
-      <c r="K46" s="174"/>
+      <c r="A46" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="180"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="180"/>
+      <c r="G46" s="180"/>
+      <c r="H46" s="180"/>
+      <c r="I46" s="180"/>
+      <c r="J46" s="180"/>
+      <c r="K46" s="180"/>
     </row>
     <row r="47" spans="1:11" s="66" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="75"/>
+      <c r="C47" s="181" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="175" t="s">
+      <c r="D47" s="181"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="181"/>
+      <c r="G47" s="181"/>
+      <c r="H47" s="181"/>
+      <c r="I47" s="181"/>
+      <c r="J47" s="181"/>
+      <c r="K47" s="181"/>
+    </row>
+    <row r="48" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="174"/>
+      <c r="B48" s="174" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="174" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="175"/>
-      <c r="E47" s="175"/>
-      <c r="F47" s="175"/>
-      <c r="G47" s="175"/>
-      <c r="H47" s="175"/>
-      <c r="I47" s="175"/>
-      <c r="J47" s="175"/>
-      <c r="K47" s="175"/>
-    </row>
-    <row r="48" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="178"/>
-      <c r="B48" s="178" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="178" t="s">
+      <c r="D48" s="174" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="178" t="s">
+      <c r="E48" s="174" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="178" t="s">
-        <v>96</v>
-      </c>
-      <c r="F48" s="178" t="s">
+      <c r="G48" s="174" t="s">
+        <v>99</v>
+      </c>
+      <c r="H48" s="175" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="178" t="s">
-        <v>100</v>
-      </c>
-      <c r="H48" s="185" t="s">
+      <c r="I48" s="176"/>
+      <c r="J48" s="176"/>
+      <c r="K48" s="176"/>
+    </row>
+    <row r="49" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="174"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
+      <c r="E49" s="174"/>
+      <c r="F49" s="174"/>
+      <c r="G49" s="174"/>
+      <c r="H49" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="I48" s="186"/>
-      <c r="J48" s="186"/>
-      <c r="K48" s="186"/>
-    </row>
-    <row r="49" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="178"/>
-      <c r="B49" s="178"/>
-      <c r="C49" s="178"/>
-      <c r="D49" s="178"/>
-      <c r="E49" s="178"/>
-      <c r="F49" s="178"/>
-      <c r="G49" s="178"/>
-      <c r="H49" s="176" t="s">
+      <c r="I49" s="183"/>
+      <c r="J49" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="I49" s="177"/>
-      <c r="J49" s="68" t="s">
+      <c r="K49" s="68" t="s">
         <v>129</v>
-      </c>
-      <c r="K49" s="68" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="67" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
@@ -19117,29 +19196,29 @@
         <v>1</v>
       </c>
       <c r="B50" s="96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="69">
         <v>45553</v>
       </c>
       <c r="D50" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F50" s="71" t="str">
         <f>IF(OR((CODE($D50)*CODE($E50))=$D$36,(CODE($D50)*CODE($E50))=$D$35),$D$15,IF(OR((CODE($D50)*CODE($E50))=$D$34,(CODE($D50)*CODE($E50))=$D$37),$D$16,IF(OR((CODE($D50)*CODE($E50))=$D$38,(CODE($D50)*CODE($E50))=$D$39),$D$17,)))</f>
         <v>Alta</v>
       </c>
       <c r="G50" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="H50" s="183"/>
-      <c r="I50" s="184"/>
+        <v>100</v>
+      </c>
+      <c r="H50" s="172"/>
+      <c r="I50" s="173"/>
       <c r="J50" s="74"/>
       <c r="K50" s="74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19147,23 +19226,23 @@
         <v>2</v>
       </c>
       <c r="B51" s="96" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C51" s="69">
         <v>45553</v>
       </c>
       <c r="D51" s="70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F51" s="71" t="str">
         <f t="shared" ref="F51:F58" si="0">IF(OR((CODE($D51)*CODE($E51))=$D$36,(CODE($D51)*CODE($E51))=$D$35),$D$15,IF(OR((CODE($D51)*CODE($E51))=$D$34,(CODE($D51)*CODE($E51))=$D$37),$D$16,IF(OR((CODE($D51)*CODE($E51))=$D$38,(CODE($D51)*CODE($E51))=$D$39),$D$17,)))</f>
         <v>Média</v>
       </c>
       <c r="G51" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H51" s="72"/>
       <c r="I51" s="73"/>
@@ -19293,8 +19372,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="70"/>
-      <c r="H59" s="183"/>
-      <c r="I59" s="184"/>
+      <c r="H59" s="172"/>
+      <c r="I59" s="173"/>
       <c r="J59" s="74"/>
       <c r="K59" s="74"/>
     </row>
@@ -19309,22 +19388,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="70"/>
-      <c r="H60" s="183"/>
-      <c r="I60" s="184"/>
+      <c r="H60" s="172"/>
+      <c r="I60" s="173"/>
       <c r="J60" s="74"/>
       <c r="K60" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:K48"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A46:K46"/>
@@ -19336,6 +19406,15 @@
     <mergeCell ref="A42:K42"/>
     <mergeCell ref="A43:K43"/>
     <mergeCell ref="A44:K44"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:K48"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -19373,7 +19452,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -19386,42 +19465,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="187" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
+      <c r="A1" s="188" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="79"/>
       <c r="B2" s="80"/>
-      <c r="C2" s="167" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="167"/>
+      <c r="C2" s="168" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="168"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="84" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="D3" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="D3" s="84" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="86">
         <v>1</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="87" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="88">
+        <v>45609</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="86">
@@ -19531,7 +19616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
@@ -19551,7 +19636,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="42">
         <v>45553</v>
@@ -19586,7 +19671,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="15">
         <v>2</v>
@@ -19606,7 +19691,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="117" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="15">
         <v>2</v>
@@ -19626,7 +19711,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="117" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="15">
         <v>2</v>
@@ -19646,7 +19731,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="117" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="15">
         <v>2</v>
@@ -19666,7 +19751,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
@@ -19688,7 +19773,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="117" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" s="15">
         <v>2</v>
@@ -19865,7 +19950,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="39">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
@@ -19914,7 +19999,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="40">
         <f ca="1">B14/$B$13</f>
@@ -19963,7 +20048,7 @@
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="43">
         <v>24</v>
@@ -19977,7 +20062,7 @@
         <v>42</v>
       </c>
       <c r="O19" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -20012,7 +20097,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="42">
         <v>45560</v>
@@ -20047,7 +20132,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="128">
         <v>1</v>
@@ -20067,7 +20152,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="117" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="128">
         <v>10</v>
@@ -20091,7 +20176,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="128">
         <v>2</v>
@@ -20111,7 +20196,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="135" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" s="128">
         <v>2</v>
@@ -20131,7 +20216,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="136" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B6" s="128">
         <v>2</v>
@@ -20151,7 +20236,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="136" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B7" s="128">
         <v>4</v>
@@ -20173,7 +20258,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" s="128">
         <v>2</v>
@@ -20193,7 +20278,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="120" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" s="128">
         <v>5</v>
@@ -20213,7 +20298,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="120" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="128">
         <v>2</v>
@@ -20233,7 +20318,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="128">
         <v>2</v>
@@ -20352,7 +20437,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="39">
         <f ca="1">OFFSET(Sprint2!$B$12,0,0,1,COUNT(Sprint2!$B$12:$L$12))</f>
@@ -20401,7 +20486,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="40">
         <f ca="1">B14/$B$13</f>
@@ -20450,7 +20535,7 @@
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="43">
         <v>36</v>
@@ -20464,7 +20549,7 @@
         <v>42</v>
       </c>
       <c r="O19" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -20499,7 +20584,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="42">
         <v>45572</v>
@@ -20534,7 +20619,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="128">
         <v>1</v>
@@ -20554,7 +20639,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B3" s="128">
         <v>2</v>
@@ -20574,7 +20659,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="136" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B4" s="128">
         <v>2</v>
@@ -20594,7 +20679,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="135" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" s="128">
         <v>1</v>
@@ -20614,7 +20699,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="136" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6" s="128">
         <v>2</v>
@@ -20634,7 +20719,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="136" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="128">
         <v>3</v>
@@ -20656,7 +20741,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="136" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="128">
         <v>2</v>
@@ -20676,7 +20761,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="128">
         <v>1</v>
@@ -20696,7 +20781,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="135" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="128">
         <v>1</v>
@@ -20716,7 +20801,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="136" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11" s="128">
         <v>2</v>
@@ -20736,7 +20821,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B12" s="128">
         <v>4</v>
@@ -20758,7 +20843,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13" s="128">
         <v>2</v>
@@ -20778,7 +20863,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" s="128">
         <v>2</v>
@@ -20897,7 +20982,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="39">
         <f ca="1">OFFSET(Sprint3!$B$15,0,0,1,COUNT(Sprint3!$B$15:$L$15))</f>
@@ -20946,7 +21031,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="40">
         <f ca="1">B17/$B$16</f>
@@ -20995,7 +21080,7 @@
     </row>
     <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="43">
         <v>24</v>
@@ -21009,7 +21094,7 @@
         <v>42</v>
       </c>
       <c r="O22" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Gerenciamento de Projeto/AGP - Planejamento e Controle do Projeto.xlsx
+++ b/Gerenciamento de Projeto/AGP - Planejamento e Controle do Projeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\AGP\Gerenciamento de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A466D331-317A-4D65-8914-251ABF9EC501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1A81E4-A036-423C-BA51-C04862F9D315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="10" r:id="rId1"/>
@@ -2584,7 +2584,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="312">
   <si>
     <t>Iniciação</t>
   </si>
@@ -2743,9 +2743,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Planejado</t>
   </si>
   <si>
     <t>% de erro</t>
@@ -4845,21 +4842,6 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4881,6 +4863,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4892,6 +4877,18 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7274,7 +7271,7 @@
                   <c:v>Horas estimadas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/out</c:v>
+                  <c:v>31/out</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dia 2</c:v>
@@ -7316,22 +7313,22 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7384,7 +7381,7 @@
                   <c:v>Horas estimadas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/out</c:v>
+                  <c:v>31/out</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dia 2</c:v>
@@ -7796,7 +7793,7 @@
                   <c:v>Horas estimadas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/out</c:v>
+                  <c:v>14/nov</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dia 2</c:v>
@@ -7906,7 +7903,7 @@
                   <c:v>Horas estimadas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02/out</c:v>
+                  <c:v>14/nov</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dia 2</c:v>
@@ -12849,28 +12846,28 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="146" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="146"/>
       <c r="C1" s="146"/>
     </row>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="147" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B2" s="147"/>
       <c r="C2" s="147"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
@@ -12881,96 +12878,96 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="144" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="144" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="144" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C6" s="144" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C7" s="144" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -12999,22 +12996,22 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="7" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="42">
         <v>45580</v>
@@ -13047,24 +13044,24 @@
         <v>40</v>
       </c>
       <c r="M1" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="N1" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="P1" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="Q1" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="Q1" s="41" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="128">
         <v>1</v>
@@ -13087,9 +13084,9 @@
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="135" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="128">
         <v>1</v>
@@ -13112,9 +13109,9 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="136" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="128">
         <v>2</v>
@@ -13137,9 +13134,9 @@
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="136" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="128">
         <v>3</v>
@@ -13164,9 +13161,9 @@
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="136" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" s="128">
         <v>2</v>
@@ -13189,9 +13186,9 @@
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="136" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7" s="128">
         <v>1</v>
@@ -13214,9 +13211,9 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="135" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8" s="128">
         <v>2</v>
@@ -13239,9 +13236,9 @@
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" s="128">
         <v>2</v>
@@ -13266,9 +13263,9 @@
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B10" s="128">
         <v>5</v>
@@ -13293,9 +13290,9 @@
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" s="128">
         <v>3</v>
@@ -13320,9 +13317,9 @@
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="136" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B12" s="128">
         <v>2</v>
@@ -13345,9 +13342,9 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="135" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B13" s="128">
         <v>1</v>
@@ -13370,9 +13367,9 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B14" s="128">
         <v>2</v>
@@ -13397,9 +13394,9 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="136" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B15" s="128">
         <v>3</v>
@@ -13424,9 +13421,9 @@
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="136" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B16" s="128">
         <v>2</v>
@@ -13451,9 +13448,9 @@
       </c>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B17" s="128">
         <v>1</v>
@@ -13476,7 +13473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
         <v>30</v>
       </c>
@@ -13545,7 +13542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>31</v>
       </c>
@@ -13614,9 +13611,9 @@
         <v>-16.500000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="39">
         <f ca="1">OFFSET(Sprint4!$B$18,0,0,1,COUNT(Sprint4!$B$18:$L$18))</f>
@@ -13683,9 +13680,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="40">
         <f ca="1">B20/$B$19</f>
@@ -13752,9 +13749,9 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="43">
         <v>36</v>
@@ -13763,12 +13760,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N25" s="14" t="s">
         <v>42</v>
       </c>
       <c r="O25" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -13784,29 +13781,29 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="12" width="7" style="3" customWidth="1"/>
-    <col min="13" max="13" width="1.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.44140625" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="42">
-        <v>45567</v>
+        <v>45596</v>
       </c>
       <c r="D1" s="41" t="s">
         <v>32</v>
@@ -13836,14 +13833,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="128">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -13854,15 +13853,19 @@
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="135" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B3" s="128">
         <v>2</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -13872,16 +13875,18 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="136" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="128">
         <v>2</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="E4" s="15">
+        <v>2</v>
+      </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -13890,17 +13895,21 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="136" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5" s="128">
         <v>3</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>2</v>
+      </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
@@ -13908,9 +13917,9 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="136" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B6" s="128">
         <v>2</v>
@@ -13919,16 +13928,18 @@
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15">
+        <v>2</v>
+      </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="136" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B7" s="128">
         <v>1</v>
@@ -13937,16 +13948,18 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="135" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B8" s="128">
         <v>1</v>
@@ -13956,15 +13969,17 @@
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B9" s="128">
         <v>1</v>
@@ -13974,15 +13989,17 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="H9" s="15">
+        <v>1</v>
+      </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B10" s="128">
         <v>2</v>
@@ -13993,14 +14010,16 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="I10" s="15">
+        <v>2</v>
+      </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B11" s="128">
         <v>1</v>
@@ -14012,13 +14031,15 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="15">
+        <v>1</v>
+      </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B12" s="128">
         <v>1</v>
@@ -14030,13 +14051,15 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="15">
+        <v>1</v>
+      </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="120" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" s="128">
         <v>3</v>
@@ -14049,12 +14072,14 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
+      <c r="K13" s="15">
+        <v>3</v>
+      </c>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" s="128">
         <v>2</v>
@@ -14068,9 +14093,11 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
         <v>30</v>
       </c>
@@ -14078,49 +14105,49 @@
         <f>SUM(B2:B14)</f>
         <v>22</v>
       </c>
-      <c r="C15" s="37" t="str">
+      <c r="C15" s="37">
         <f t="shared" ref="C15:L15" si="0">IF(SUM(C2:C14)&gt;0,B15-SUM(C2:C14), "")</f>
-        <v/>
-      </c>
-      <c r="D15" s="37" t="str">
+        <v>20</v>
+      </c>
+      <c r="D15" s="37">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E15" s="37" t="str">
+        <v>19</v>
+      </c>
+      <c r="E15" s="37">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="37" t="str">
+        <v>16</v>
+      </c>
+      <c r="F15" s="37">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G15" s="37" t="str">
+        <v>14</v>
+      </c>
+      <c r="G15" s="37">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H15" s="37" t="str">
+        <v>11</v>
+      </c>
+      <c r="H15" s="37">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I15" s="37" t="str">
+        <v>9</v>
+      </c>
+      <c r="I15" s="37">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J15" s="37" t="str">
+        <v>7</v>
+      </c>
+      <c r="J15" s="37">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K15" s="37" t="str">
+        <v>5</v>
+      </c>
+      <c r="K15" s="37">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L15" s="37" t="str">
+        <v>2</v>
+      </c>
+      <c r="L15" s="37">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M15" s="32"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>31</v>
       </c>
@@ -14169,9 +14196,9 @@
         <v>3.5527136788005009E-15</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="39">
         <f ca="1">OFFSET(Sprint5!$B$15,0,0,1,COUNT(Sprint5!$B$15:$L$15))</f>
@@ -14179,48 +14206,48 @@
       </c>
       <c r="C17" s="39">
         <f ca="1">OFFSET(Sprint5!$B$15,0,0,1,COUNT(Sprint5!$B$15:$L$15))</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="39">
         <f ca="1">OFFSET(Sprint5!$B$15,0,0,1,COUNT(Sprint5!$B$15:$L$15))</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E17" s="39">
         <f ca="1">OFFSET(Sprint5!$B$15,0,0,1,COUNT(Sprint5!$B$15:$L$15))</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F17" s="39">
         <f ca="1">OFFSET(Sprint5!$B$15,0,0,1,COUNT(Sprint5!$B$15:$L$15))</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G17" s="39">
         <f ca="1">OFFSET(Sprint5!$B$15,0,0,1,COUNT(Sprint5!$B$15:$L$15))</f>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H17" s="39">
         <f ca="1">OFFSET(Sprint5!$B$15,0,0,1,COUNT(Sprint5!$B$15:$L$15))</f>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I17" s="39">
         <f ca="1">OFFSET(Sprint5!$B$15,0,0,1,COUNT(Sprint5!$B$15:$L$15))</f>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J17" s="39">
         <f ca="1">OFFSET(Sprint5!$B$15,0,0,1,COUNT(Sprint5!$B$15:$L$15))</f>
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K17" s="39">
         <f ca="1">OFFSET(Sprint5!$B$15,0,0,1,COUNT(Sprint5!$B$15:$L$15))</f>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="L17" s="39">
         <f ca="1">OFFSET(Sprint5!$B$15,0,0,1,COUNT(Sprint5!$B$15:$L$15))</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="40">
         <f ca="1">B17/$B$16</f>
@@ -14228,48 +14255,48 @@
       </c>
       <c r="C18" s="40">
         <f ca="1">100%-(C17/$B$16)</f>
-        <v>0</v>
+        <v>9.0909090909090939E-2</v>
       </c>
       <c r="D18" s="40">
         <f t="shared" ref="D18:L18" ca="1" si="2">100%-(D17/$B$16)</f>
-        <v>0</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="E18" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="F18" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="G18" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.59090909090909083</v>
       </c>
       <c r="I18" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.68181818181818188</v>
       </c>
       <c r="J18" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.77272727272727271</v>
       </c>
       <c r="K18" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="L18" s="40">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="43">
         <v>24</v>
@@ -14278,12 +14305,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N22" s="14" t="s">
         <v>42</v>
       </c>
       <c r="O22" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -14299,29 +14326,29 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="12" width="7" style="3" customWidth="1"/>
-    <col min="13" max="13" width="1.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.44140625" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="42">
-        <v>45567</v>
+        <v>45610</v>
       </c>
       <c r="D1" s="41" t="s">
         <v>32</v>
@@ -14351,9 +14378,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="128">
         <v>1</v>
@@ -14369,9 +14396,9 @@
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="120" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" s="128">
         <v>2</v>
@@ -14387,9 +14414,9 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="120" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="128">
         <v>5</v>
@@ -14405,9 +14432,9 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="120" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="128">
         <v>20</v>
@@ -14423,9 +14450,9 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="117" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="128">
         <v>2</v>
@@ -14441,9 +14468,9 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="117" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="128">
         <v>3</v>
@@ -14459,9 +14486,9 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="117" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="128">
         <v>3</v>
@@ -14477,9 +14504,9 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="117" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="128">
         <v>1</v>
@@ -14495,9 +14522,9 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="120" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="128">
         <v>3</v>
@@ -14513,7 +14540,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>30</v>
       </c>
@@ -14563,7 +14590,7 @@
       </c>
       <c r="M11" s="32"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>31</v>
       </c>
@@ -14612,9 +14639,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="39">
         <f ca="1">OFFSET(Sprint6!$B$11,0,0,1,COUNT(Sprint6!$B$11:$L$11))</f>
@@ -14661,9 +14688,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="40">
         <f ca="1">B13/$B$12</f>
@@ -14710,9 +14737,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="43">
         <v>48</v>
@@ -14721,12 +14748,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N18" s="14" t="s">
         <v>42</v>
       </c>
       <c r="O18" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -14745,27 +14772,27 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.42578125" customWidth="1"/>
-    <col min="13" max="13" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.44140625" customWidth="1"/>
+    <col min="13" max="13" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="54" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="54" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="196" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="196"/>
       <c r="C1" s="196"/>
@@ -14781,9 +14808,9 @@
       <c r="M1" s="196"/>
       <c r="N1" s="196"/>
     </row>
-    <row r="2" spans="1:23" s="98" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="98" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="197" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="197"/>
       <c r="C2" s="197"/>
@@ -14799,9 +14826,9 @@
       <c r="M2" s="197"/>
       <c r="N2" s="197"/>
     </row>
-    <row r="3" spans="1:23" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="198" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="198"/>
       <c r="C3" s="198"/>
@@ -14817,9 +14844,9 @@
       <c r="M3" s="198"/>
       <c r="N3" s="198"/>
     </row>
-    <row r="4" spans="1:23" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="199" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="199"/>
       <c r="C4" s="199"/>
@@ -14835,9 +14862,9 @@
       <c r="M4" s="199"/>
       <c r="N4" s="199"/>
     </row>
-    <row r="5" spans="1:23" s="98" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="98" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="200" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="200"/>
       <c r="C5" s="200"/>
@@ -14853,78 +14880,78 @@
       <c r="M5" s="200"/>
       <c r="N5" s="200"/>
     </row>
-    <row r="6" spans="1:23" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="194" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="195"/>
       <c r="D7" s="194" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E7" s="195"/>
       <c r="G7" s="190" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H7" s="190"/>
       <c r="I7" s="190"/>
       <c r="J7" s="190"/>
       <c r="K7" s="190"/>
       <c r="M7" s="194" t="s">
+        <v>171</v>
+      </c>
+      <c r="N7" s="195"/>
+    </row>
+    <row r="8" spans="1:23" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="N8" s="100" t="s">
         <v>172</v>
       </c>
-      <c r="N7" s="195"/>
-    </row>
-    <row r="8" spans="1:23" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+    </row>
+    <row r="9" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="100" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="99" t="s">
+      <c r="B9" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="100" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="99" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="I8" s="99" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="100" t="s">
-        <v>149</v>
-      </c>
-      <c r="K8" s="100" t="s">
-        <v>141</v>
-      </c>
-      <c r="M8" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="N8" s="100" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A9" s="97" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="101" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="97" t="s">
-        <v>155</v>
-      </c>
       <c r="E9" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H9" s="97">
         <v>2</v>
@@ -14940,21 +14967,21 @@
         <v>8</v>
       </c>
       <c r="M9" s="103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N9" s="105"/>
     </row>
-    <row r="10" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="97"/>
       <c r="E10" s="101"/>
       <c r="G10" s="99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H10" s="97"/>
       <c r="I10" s="97"/>
@@ -14964,59 +14991,59 @@
         <v>0</v>
       </c>
       <c r="M10" s="103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N10" s="105"/>
     </row>
-    <row r="11" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="97"/>
       <c r="B11" s="101"/>
       <c r="D11" s="97"/>
       <c r="E11" s="101"/>
       <c r="G11" s="190" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H11" s="190"/>
       <c r="I11" s="190"/>
       <c r="J11" s="190"/>
       <c r="K11" s="190"/>
       <c r="M11" s="103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N11" s="105"/>
     </row>
-    <row r="12" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A12" s="97"/>
       <c r="B12" s="101"/>
       <c r="D12" s="97"/>
       <c r="E12" s="101"/>
       <c r="G12" s="99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H12" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="I12" s="99" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="100" t="s">
-        <v>149</v>
-      </c>
       <c r="K12" s="100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M12" s="103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N12" s="105"/>
     </row>
-    <row r="13" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A13" s="97"/>
       <c r="B13" s="101"/>
       <c r="D13" s="97"/>
       <c r="E13" s="101"/>
       <c r="G13" s="99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H13" s="97">
         <v>1</v>
@@ -15028,20 +15055,20 @@
         <v>3</v>
       </c>
       <c r="M13" s="103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N13" s="105"/>
       <c r="W13" s="22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A14" s="97"/>
       <c r="B14" s="101"/>
       <c r="D14" s="97"/>
       <c r="E14" s="101"/>
       <c r="G14" s="99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H14" s="97"/>
       <c r="I14" s="97"/>
@@ -15051,17 +15078,17 @@
         <v>0</v>
       </c>
       <c r="M14" s="103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N14" s="105"/>
     </row>
-    <row r="15" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A15" s="97"/>
       <c r="B15" s="101"/>
       <c r="D15" s="97"/>
       <c r="E15" s="101"/>
       <c r="G15" s="99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H15" s="97">
         <v>1</v>
@@ -15073,17 +15100,17 @@
         <v>3</v>
       </c>
       <c r="M15" s="103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N15" s="105"/>
     </row>
-    <row r="16" spans="1:23" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="97"/>
       <c r="B16" s="101"/>
       <c r="D16" s="97"/>
       <c r="E16" s="101"/>
       <c r="G16" s="191" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H16" s="192"/>
       <c r="I16" s="192"/>
@@ -15093,100 +15120,100 @@
         <v>14</v>
       </c>
       <c r="M16" s="103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N16" s="105"/>
     </row>
-    <row r="17" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A17" s="97"/>
       <c r="B17" s="101"/>
       <c r="D17" s="97"/>
       <c r="E17" s="101"/>
       <c r="M17" s="103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N17" s="105"/>
     </row>
-    <row r="18" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A18" s="97"/>
       <c r="B18" s="101"/>
       <c r="D18" s="97"/>
       <c r="E18" s="101"/>
       <c r="M18" s="103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N18" s="105"/>
     </row>
-    <row r="19" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A19" s="97"/>
       <c r="B19" s="101"/>
       <c r="D19" s="97"/>
       <c r="E19" s="101"/>
       <c r="M19" s="103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N19" s="105"/>
     </row>
-    <row r="20" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A20" s="97"/>
       <c r="B20" s="101"/>
       <c r="D20" s="97"/>
       <c r="E20" s="101"/>
       <c r="M20" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="N20" s="105"/>
+    </row>
+    <row r="21" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="M21" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="N20" s="105"/>
-    </row>
-    <row r="21" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="M21" s="103" t="s">
+      <c r="N21" s="105"/>
+    </row>
+    <row r="22" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="M22" s="103" t="s">
         <v>167</v>
       </c>
-      <c r="N21" s="105"/>
-    </row>
-    <row r="22" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="M22" s="103" t="s">
-        <v>168</v>
-      </c>
       <c r="N22" s="105"/>
     </row>
-    <row r="23" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="M23" s="104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N23" s="106">
         <f>SUM(N9:N22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M24" s="104" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N24" s="102">
         <f>(N23*0.01)+0.65</f>
         <v>0.65</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M25" s="104" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N25" s="107">
         <f>K16*N24</f>
         <v>9.1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M26" s="104" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N26" s="108">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="M27" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N27" s="110">
         <f>N25*N26</f>
@@ -15230,27 +15257,27 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="196" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="196"/>
       <c r="C1" s="196"/>
@@ -15266,15 +15293,15 @@
       <c r="M1" s="196"/>
       <c r="N1" s="196"/>
     </row>
-    <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="202" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="202"/>
       <c r="C3" s="202"/>
       <c r="E3" s="189" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="189"/>
       <c r="G3" s="189"/>
@@ -15286,9 +15313,9 @@
       <c r="M3" s="189"/>
       <c r="N3" s="189"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="129">
         <f>'#Estimativa-APF#'!$N$27</f>
@@ -15318,15 +15345,15 @@
       <c r="M4" s="201"/>
       <c r="N4" s="115"/>
     </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="26">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="203"/>
       <c r="F5" s="201" t="s">
@@ -15346,12 +15373,12 @@
       </c>
       <c r="M5" s="201"/>
       <c r="N5" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="130">
         <f>B4+(B4*B5)</f>
@@ -15391,7 +15418,7 @@
       </c>
       <c r="N6" s="111"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -15435,9 +15462,9 @@
         <v>29.47945</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="15">
         <v>40</v>
@@ -15481,9 +15508,9 @@
         <v>20.315750000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="15">
         <v>2</v>
@@ -15527,9 +15554,9 @@
         <v>54.636400000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="11">
         <f>(B7*B8)*B9</f>
@@ -15574,7 +15601,7 @@
         <v>16.166150000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -15621,9 +15648,9 @@
         <v>8.0398500000000013</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="44">
         <f>B11/4</f>
@@ -15669,9 +15696,9 @@
       </c>
       <c r="N12" s="50"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="49">
         <f>B11/B9</f>
@@ -15716,7 +15743,7 @@
         <v>22.822800000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
@@ -15753,7 +15780,7 @@
         <v>21.439600000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E15" s="50" t="s">
         <v>19</v>
       </c>
@@ -15791,14 +15818,14 @@
       </c>
       <c r="N15" s="50"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="202" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="202"/>
       <c r="C16" s="202"/>
       <c r="E16" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F16" s="113">
         <f>F12+F15</f>
@@ -15837,7 +15864,7 @@
         <v>172.90000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
@@ -15847,7 +15874,7 @@
       <c r="C17" s="2"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
@@ -15859,7 +15886,7 @@
       <c r="L18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
@@ -15869,7 +15896,7 @@
       <c r="C19" s="2"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
@@ -15881,7 +15908,7 @@
       <c r="L20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>22</v>
       </c>
@@ -15892,7 +15919,7 @@
       <c r="C21" s="2"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
@@ -15902,7 +15929,7 @@
       <c r="C22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
@@ -15912,7 +15939,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>24</v>
       </c>
@@ -15922,16 +15949,16 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N29" s="1"/>
     </row>
   </sheetData>
@@ -15965,31 +15992,31 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="148"/>
       <c r="C1" s="148"/>
     </row>
-    <row r="2" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="149"/>
       <c r="C3" s="149"/>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B4" s="141">
         <f>'Backlog Produto'!$D$76</f>
@@ -15999,29 +16026,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="26">
         <v>0.2</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="15">
         <v>4</v>
       </c>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="15">
         <v>6</v>
@@ -16030,9 +16057,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" s="139">
         <f>B6*B7*2</f>
@@ -16042,21 +16069,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" s="138">
         <f>B11/2</f>
         <v>4.1000000000000005</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B10" s="140">
         <f>B4+(B4*B5)</f>
@@ -16066,9 +16093,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B11" s="139">
         <f>B10/B8*2</f>
@@ -16078,9 +16105,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B12" s="138">
         <f>B11/4</f>
@@ -16090,14 +16117,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="149" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="149"/>
       <c r="C14" s="149"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
@@ -16106,7 +16133,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -16116,7 +16143,7 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
@@ -16125,7 +16152,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -16135,9 +16162,9 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" s="142">
         <f>B16+B18</f>
@@ -16145,7 +16172,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
@@ -16154,7 +16181,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>23</v>
       </c>
@@ -16164,9 +16191,9 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" s="142">
         <f>B19+B21</f>
@@ -16190,34 +16217,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="A57" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="48" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="22" customWidth="1"/>
     <col min="3" max="3" width="69" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="119" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" style="22" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="22" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="22"/>
-    <col min="10" max="10" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="22"/>
+    <col min="4" max="4" width="9.44140625" style="119" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="4.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="22" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" style="22"/>
+    <col min="10" max="10" width="11.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="160" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="161"/>
       <c r="C1" s="161"/>
       <c r="D1" s="161"/>
       <c r="F1" s="153" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G1" s="154"/>
       <c r="H1" s="154"/>
@@ -16226,15 +16253,15 @@
       <c r="K1" s="154"/>
       <c r="L1" s="154"/>
     </row>
-    <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="155" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="156"/>
       <c r="C2" s="156"/>
       <c r="D2" s="156"/>
       <c r="F2" s="157" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" s="158"/>
       <c r="H2" s="158"/>
@@ -16243,34 +16270,34 @@
       <c r="K2" s="158"/>
       <c r="L2" s="158"/>
     </row>
-    <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="133" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="133" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="133" t="s">
-        <v>197</v>
-      </c>
       <c r="D3" s="133" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="134" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="159" t="s">
         <v>214</v>
-      </c>
-      <c r="F3" s="133" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="134" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="159" t="s">
-        <v>215</v>
       </c>
       <c r="I3" s="159"/>
       <c r="J3" s="159"/>
       <c r="K3" s="159"/>
       <c r="L3" s="159"/>
     </row>
-    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="150" t="s">
         <v>0</v>
       </c>
@@ -16280,28 +16307,28 @@
         <v>12</v>
       </c>
       <c r="F4" s="124" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G4" s="124" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H4" s="126" t="s">
+        <v>215</v>
+      </c>
+      <c r="I4" s="126" t="s">
         <v>216</v>
       </c>
-      <c r="I4" s="126" t="s">
+      <c r="J4" s="126" t="s">
         <v>217</v>
       </c>
-      <c r="J4" s="126" t="s">
+      <c r="K4" s="131" t="s">
         <v>218</v>
-      </c>
-      <c r="K4" s="131" t="s">
-        <v>219</v>
       </c>
       <c r="L4" s="126" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="121">
         <v>1</v>
       </c>
@@ -16309,7 +16336,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="117" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" s="128">
         <v>2</v>
@@ -16318,7 +16345,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="117" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H5" s="125">
         <v>5</v>
@@ -16337,7 +16364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="121">
         <v>2</v>
       </c>
@@ -16345,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="117" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="128">
         <v>2</v>
@@ -16354,7 +16381,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="117" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H6" s="125">
         <v>4</v>
@@ -16373,7 +16400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="121">
         <v>3</v>
       </c>
@@ -16381,7 +16408,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="117" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="128">
         <v>2</v>
@@ -16390,7 +16417,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="117" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H7" s="125">
         <v>5</v>
@@ -16409,7 +16436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="121">
         <v>4</v>
       </c>
@@ -16417,7 +16444,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="117" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" s="128">
         <v>2</v>
@@ -16426,7 +16453,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="117" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H8" s="125">
         <v>4</v>
@@ -16445,7 +16472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="121">
         <v>5</v>
       </c>
@@ -16453,7 +16480,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D9" s="128">
         <v>2</v>
@@ -16462,7 +16489,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="117" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H9" s="125">
         <v>7</v>
@@ -16481,7 +16508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="121">
         <v>6</v>
       </c>
@@ -16489,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="117" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="128">
         <v>2</v>
@@ -16498,7 +16525,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="117" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H10" s="125">
         <v>5</v>
@@ -16517,7 +16544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="150" t="s">
         <v>1</v>
       </c>
@@ -16531,7 +16558,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="117" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H11" s="125">
         <v>5</v>
@@ -16550,7 +16577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="121">
         <v>7</v>
       </c>
@@ -16558,7 +16585,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" s="128">
         <v>1</v>
@@ -16567,7 +16594,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="117" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H12" s="125">
         <v>4</v>
@@ -16586,7 +16613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="121">
         <v>8</v>
       </c>
@@ -16594,7 +16621,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D13" s="128">
         <v>10</v>
@@ -16610,7 +16637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="121">
         <v>9</v>
       </c>
@@ -16618,7 +16645,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="120" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D14" s="128">
         <v>2</v>
@@ -16634,7 +16661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="121">
         <v>10</v>
       </c>
@@ -16642,7 +16669,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="135" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D15" s="128">
         <v>2</v>
@@ -16658,7 +16685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="121">
         <v>11</v>
       </c>
@@ -16666,7 +16693,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="136" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D16" s="128">
         <v>2</v>
@@ -16682,7 +16709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="121">
         <v>12</v>
       </c>
@@ -16690,7 +16717,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="136" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D17" s="128">
         <v>4</v>
@@ -16706,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="121">
         <v>13</v>
       </c>
@@ -16714,7 +16741,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" s="128">
         <v>2</v>
@@ -16730,7 +16757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="121">
         <v>14</v>
       </c>
@@ -16738,7 +16765,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D19" s="128">
         <v>5</v>
@@ -16754,7 +16781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="121">
         <v>15</v>
       </c>
@@ -16762,7 +16789,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="120" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D20" s="128">
         <v>2</v>
@@ -16775,7 +16802,7 @@
       <c r="K20" s="119"/>
       <c r="L20" s="119"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="121">
         <v>16</v>
       </c>
@@ -16783,7 +16810,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D21" s="128">
         <v>2</v>
@@ -16796,7 +16823,7 @@
       <c r="K21" s="119"/>
       <c r="L21" s="119"/>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="150" t="s">
         <v>2</v>
       </c>
@@ -16814,7 +16841,7 @@
       <c r="K22" s="119"/>
       <c r="L22" s="119"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="121">
         <v>17</v>
       </c>
@@ -16822,7 +16849,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D23" s="128">
         <v>1</v>
@@ -16835,7 +16862,7 @@
       <c r="K23" s="119"/>
       <c r="L23" s="119"/>
     </row>
-    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="121">
         <v>18</v>
       </c>
@@ -16843,13 +16870,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D24" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="121">
         <v>22</v>
       </c>
@@ -16857,13 +16884,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D25" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="121">
         <v>23</v>
       </c>
@@ -16871,13 +16898,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="135" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D26" s="128">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="121">
         <v>24</v>
       </c>
@@ -16885,13 +16912,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="136" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D27" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="121">
         <v>25</v>
       </c>
@@ -16899,13 +16926,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="136" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D28" s="128">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="121">
         <v>26</v>
       </c>
@@ -16913,13 +16940,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D29" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="121">
         <v>27</v>
       </c>
@@ -16927,13 +16954,13 @@
         <v>2</v>
       </c>
       <c r="C30" s="136" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D30" s="128">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="121">
         <v>28</v>
       </c>
@@ -16941,13 +16968,13 @@
         <v>2</v>
       </c>
       <c r="C31" s="135" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D31" s="128">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="121">
         <v>29</v>
       </c>
@@ -16955,13 +16982,13 @@
         <v>2</v>
       </c>
       <c r="C32" s="136" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D32" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="121">
         <v>30</v>
       </c>
@@ -16969,13 +16996,13 @@
         <v>2</v>
       </c>
       <c r="C33" s="136" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D33" s="128">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="121">
         <v>31</v>
       </c>
@@ -16983,13 +17010,13 @@
         <v>2</v>
       </c>
       <c r="C34" s="136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D34" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="121">
         <v>32</v>
       </c>
@@ -16997,25 +17024,25 @@
         <v>2</v>
       </c>
       <c r="C35" s="136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D35" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="121"/>
       <c r="B36" s="118" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D36" s="128">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="121">
         <v>33</v>
       </c>
@@ -17023,13 +17050,13 @@
         <v>2</v>
       </c>
       <c r="C37" s="135" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D37" s="128">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="121">
         <v>34</v>
       </c>
@@ -17037,13 +17064,13 @@
         <v>2</v>
       </c>
       <c r="C38" s="136" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D38" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="121">
         <v>35</v>
       </c>
@@ -17051,13 +17078,13 @@
         <v>2</v>
       </c>
       <c r="C39" s="136" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D39" s="128">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="121">
         <v>36</v>
       </c>
@@ -17065,13 +17092,13 @@
         <v>2</v>
       </c>
       <c r="C40" s="136" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D40" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="121">
         <v>37</v>
       </c>
@@ -17079,13 +17106,13 @@
         <v>2</v>
       </c>
       <c r="C41" s="136" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D41" s="128">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="121">
         <v>38</v>
       </c>
@@ -17093,13 +17120,13 @@
         <v>2</v>
       </c>
       <c r="C42" s="135" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D42" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="121">
         <v>39</v>
       </c>
@@ -17107,13 +17134,13 @@
         <v>2</v>
       </c>
       <c r="C43" s="136" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D43" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="121">
         <v>40</v>
       </c>
@@ -17121,13 +17148,13 @@
         <v>2</v>
       </c>
       <c r="C44" s="136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D44" s="128">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="121">
         <v>41</v>
       </c>
@@ -17135,13 +17162,13 @@
         <v>2</v>
       </c>
       <c r="C45" s="136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D45" s="128">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="121">
         <v>42</v>
       </c>
@@ -17149,13 +17176,13 @@
         <v>2</v>
       </c>
       <c r="C46" s="136" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D46" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="121">
         <v>43</v>
       </c>
@@ -17163,13 +17190,13 @@
         <v>2</v>
       </c>
       <c r="C47" s="135" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D47" s="128">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="121">
         <v>44</v>
       </c>
@@ -17177,13 +17204,13 @@
         <v>2</v>
       </c>
       <c r="C48" s="136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D48" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="121">
         <v>45</v>
       </c>
@@ -17191,13 +17218,13 @@
         <v>2</v>
       </c>
       <c r="C49" s="136" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D49" s="128">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="121">
         <v>46</v>
       </c>
@@ -17205,13 +17232,13 @@
         <v>2</v>
       </c>
       <c r="C50" s="136" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D50" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="121">
         <v>47</v>
       </c>
@@ -17219,25 +17246,25 @@
         <v>2</v>
       </c>
       <c r="C51" s="136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D51" s="128">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="121"/>
       <c r="B52" s="118" t="s">
         <v>2</v>
       </c>
       <c r="C52" s="117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D52" s="128">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="121">
         <v>43</v>
       </c>
@@ -17245,13 +17272,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="135" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D53" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="121">
         <v>44</v>
       </c>
@@ -17259,13 +17286,13 @@
         <v>2</v>
       </c>
       <c r="C54" s="136" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D54" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="121">
         <v>45</v>
       </c>
@@ -17273,13 +17300,13 @@
         <v>2</v>
       </c>
       <c r="C55" s="136" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D55" s="128">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="121">
         <v>46</v>
       </c>
@@ -17287,13 +17314,13 @@
         <v>2</v>
       </c>
       <c r="C56" s="136" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D56" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="121">
         <v>47</v>
       </c>
@@ -17301,13 +17328,13 @@
         <v>2</v>
       </c>
       <c r="C57" s="136" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D57" s="128">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="121">
         <v>43</v>
       </c>
@@ -17315,13 +17342,13 @@
         <v>2</v>
       </c>
       <c r="C58" s="135" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D58" s="128">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="121">
         <v>44</v>
       </c>
@@ -17329,13 +17356,13 @@
         <v>2</v>
       </c>
       <c r="C59" s="136" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D59" s="128">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="121">
         <v>45</v>
       </c>
@@ -17343,13 +17370,13 @@
         <v>2</v>
       </c>
       <c r="C60" s="136" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D60" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="121">
         <v>46</v>
       </c>
@@ -17357,13 +17384,13 @@
         <v>2</v>
       </c>
       <c r="C61" s="136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D61" s="128">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="121">
         <v>47</v>
       </c>
@@ -17371,13 +17398,13 @@
         <v>2</v>
       </c>
       <c r="C62" s="136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D62" s="128">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="121">
         <v>48</v>
       </c>
@@ -17385,13 +17412,13 @@
         <v>2</v>
       </c>
       <c r="C63" s="120" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D63" s="128">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="121">
         <v>49</v>
       </c>
@@ -17399,13 +17426,13 @@
         <v>2</v>
       </c>
       <c r="C64" s="120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D64" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="150" t="s">
         <v>3</v>
       </c>
@@ -17416,7 +17443,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="121">
         <v>50</v>
       </c>
@@ -17424,13 +17451,13 @@
         <v>3</v>
       </c>
       <c r="C66" s="117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="128">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="121">
         <v>51</v>
       </c>
@@ -17438,13 +17465,13 @@
         <v>3</v>
       </c>
       <c r="C67" s="120" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D67" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="121">
         <v>52</v>
       </c>
@@ -17452,13 +17479,13 @@
         <v>3</v>
       </c>
       <c r="C68" s="120" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="128">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="121">
         <v>53</v>
       </c>
@@ -17466,13 +17493,13 @@
         <v>3</v>
       </c>
       <c r="C69" s="120" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="128">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="121">
         <v>54</v>
       </c>
@@ -17480,13 +17507,13 @@
         <v>3</v>
       </c>
       <c r="C70" s="117" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="128">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="121">
         <v>55</v>
       </c>
@@ -17494,13 +17521,13 @@
         <v>3</v>
       </c>
       <c r="C71" s="117" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="128">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="121">
         <v>56</v>
       </c>
@@ -17508,13 +17535,13 @@
         <v>3</v>
       </c>
       <c r="C72" s="117" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="128">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="121">
         <v>57</v>
       </c>
@@ -17522,13 +17549,13 @@
         <v>3</v>
       </c>
       <c r="C73" s="117" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="128">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="121">
         <v>58</v>
       </c>
@@ -17536,13 +17563,13 @@
         <v>3</v>
       </c>
       <c r="C74" s="120" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D74" s="128">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12" x14ac:dyDescent="0.25">
       <c r="A75" s="150"/>
       <c r="B75" s="151"/>
       <c r="C75" s="152"/>
@@ -17551,7 +17578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D76" s="137">
         <f>SUM(D11,D22,D65,D75)</f>
         <v>164</v>
@@ -17582,25 +17609,25 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="14" style="22" customWidth="1"/>
     <col min="10" max="10" width="14" style="48" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="22"/>
+    <col min="11" max="11" width="15.88671875" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="162" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="163"/>
       <c r="C1" s="163"/>
@@ -17613,9 +17640,9 @@
       <c r="J1" s="163"/>
       <c r="K1" s="163"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="165" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="167"/>
       <c r="C2" s="77" t="e">
@@ -17623,7 +17650,7 @@
         <v>#REF!</v>
       </c>
       <c r="D2" s="164" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="164"/>
       <c r="F2" s="78" t="e">
@@ -17631,7 +17658,7 @@
         <v>#REF!</v>
       </c>
       <c r="G2" s="165" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="166"/>
       <c r="I2" s="166"/>
@@ -17641,37 +17668,37 @@
         <v>196.8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" s="80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C3" s="168" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="168"/>
       <c r="E3" s="168"/>
       <c r="F3" s="81"/>
       <c r="G3" s="169" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="170"/>
       <c r="I3" s="171"/>
       <c r="J3" s="82"/>
       <c r="K3" s="83"/>
     </row>
-    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A4" s="84" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="84" t="s">
         <v>12</v>
@@ -17680,27 +17707,27 @@
         <v>52</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" s="84" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="84" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A5" s="86">
         <v>1</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" s="88">
         <v>45553</v>
@@ -17712,7 +17739,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G5" s="88">
         <v>45553</v>
@@ -17726,12 +17753,12 @@
       <c r="J5" s="91"/>
       <c r="K5" s="92"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="86">
         <v>2</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C6" s="88">
         <v>45560</v>
@@ -17743,7 +17770,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G6" s="88">
         <v>45560</v>
@@ -17757,12 +17784,12 @@
       <c r="J6" s="94"/>
       <c r="K6" s="92"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A7" s="86">
         <v>3</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C7" s="88">
         <v>45572</v>
@@ -17774,7 +17801,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G7" s="88">
         <v>45572</v>
@@ -17788,12 +17815,12 @@
       <c r="J7" s="94"/>
       <c r="K7" s="92"/>
     </row>
-    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A8" s="86">
         <v>4</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C8" s="88">
         <v>45579</v>
@@ -17805,7 +17832,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" s="88">
         <v>45580</v>
@@ -17819,12 +17846,12 @@
       <c r="J8" s="94"/>
       <c r="K8" s="92"/>
     </row>
-    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A9" s="86">
         <v>5</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C9" s="88">
         <v>45595</v>
@@ -17836,22 +17863,26 @@
         <v>22</v>
       </c>
       <c r="F9" s="90" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G9" s="88">
         <v>45596</v>
       </c>
-      <c r="H9" s="88"/>
-      <c r="I9" s="93"/>
+      <c r="H9" s="88">
+        <v>45609</v>
+      </c>
+      <c r="I9" s="93">
+        <v>22</v>
+      </c>
       <c r="J9" s="94"/>
       <c r="K9" s="92"/>
     </row>
-    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A10" s="86">
         <v>6</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10" s="88">
         <v>45609</v>
@@ -17863,15 +17894,17 @@
         <v>40</v>
       </c>
       <c r="F10" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="88"/>
+        <v>273</v>
+      </c>
+      <c r="G10" s="88">
+        <v>45610</v>
+      </c>
       <c r="H10" s="88"/>
       <c r="I10" s="93"/>
       <c r="J10" s="94"/>
       <c r="K10" s="92"/>
     </row>
-    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" s="86">
         <v>8</v>
       </c>
@@ -17886,7 +17919,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="92"/>
     </row>
-    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" s="86">
         <v>9</v>
       </c>
@@ -17901,7 +17934,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="92"/>
     </row>
-    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A13" s="86">
         <v>10</v>
       </c>
@@ -17916,7 +17949,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="92"/>
     </row>
-    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="29"/>
       <c r="C14" s="31"/>
@@ -17930,7 +17963,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="46">
         <f>SUM(I5:I13)</f>
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="J14" s="47">
         <f>SUM(J5:J13)</f>
@@ -17938,7 +17971,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="C15" s="22"/>
     </row>
@@ -17995,845 +18028,845 @@
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="55" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="55" customWidth="1"/>
     <col min="3" max="3" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="55" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.109375" style="55" customWidth="1"/>
     <col min="10" max="10" width="26" style="55" customWidth="1"/>
     <col min="11" max="11" width="30" style="55" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="55"/>
+    <col min="12" max="12" width="9.109375" style="55"/>
     <col min="13" max="14" width="22" style="55" customWidth="1"/>
-    <col min="15" max="256" width="9.140625" style="55"/>
+    <col min="15" max="256" width="9.109375" style="55"/>
     <col min="257" max="258" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="13.140625" style="55" customWidth="1"/>
-    <col min="264" max="264" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="13.109375" style="55" customWidth="1"/>
+    <col min="264" max="264" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="265" max="265" width="26" style="55" customWidth="1"/>
-    <col min="266" max="266" width="34.85546875" style="55" customWidth="1"/>
+    <col min="266" max="266" width="34.88671875" style="55" customWidth="1"/>
     <col min="267" max="267" width="19" style="55" customWidth="1"/>
-    <col min="268" max="268" width="9.140625" style="55"/>
+    <col min="268" max="268" width="9.109375" style="55"/>
     <col min="269" max="270" width="22" style="55" customWidth="1"/>
-    <col min="271" max="512" width="9.140625" style="55"/>
+    <col min="271" max="512" width="9.109375" style="55"/>
     <col min="513" max="514" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="13.140625" style="55" customWidth="1"/>
-    <col min="520" max="520" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="13.109375" style="55" customWidth="1"/>
+    <col min="520" max="520" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="521" max="521" width="26" style="55" customWidth="1"/>
-    <col min="522" max="522" width="34.85546875" style="55" customWidth="1"/>
+    <col min="522" max="522" width="34.88671875" style="55" customWidth="1"/>
     <col min="523" max="523" width="19" style="55" customWidth="1"/>
-    <col min="524" max="524" width="9.140625" style="55"/>
+    <col min="524" max="524" width="9.109375" style="55"/>
     <col min="525" max="526" width="22" style="55" customWidth="1"/>
-    <col min="527" max="768" width="9.140625" style="55"/>
+    <col min="527" max="768" width="9.109375" style="55"/>
     <col min="769" max="770" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="13.140625" style="55" customWidth="1"/>
-    <col min="776" max="776" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="13.109375" style="55" customWidth="1"/>
+    <col min="776" max="776" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="777" max="777" width="26" style="55" customWidth="1"/>
-    <col min="778" max="778" width="34.85546875" style="55" customWidth="1"/>
+    <col min="778" max="778" width="34.88671875" style="55" customWidth="1"/>
     <col min="779" max="779" width="19" style="55" customWidth="1"/>
-    <col min="780" max="780" width="9.140625" style="55"/>
+    <col min="780" max="780" width="9.109375" style="55"/>
     <col min="781" max="782" width="22" style="55" customWidth="1"/>
-    <col min="783" max="1024" width="9.140625" style="55"/>
+    <col min="783" max="1024" width="9.109375" style="55"/>
     <col min="1025" max="1026" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="13.140625" style="55" customWidth="1"/>
-    <col min="1032" max="1032" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="13.109375" style="55" customWidth="1"/>
+    <col min="1032" max="1032" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="1033" max="1033" width="26" style="55" customWidth="1"/>
-    <col min="1034" max="1034" width="34.85546875" style="55" customWidth="1"/>
+    <col min="1034" max="1034" width="34.88671875" style="55" customWidth="1"/>
     <col min="1035" max="1035" width="19" style="55" customWidth="1"/>
-    <col min="1036" max="1036" width="9.140625" style="55"/>
+    <col min="1036" max="1036" width="9.109375" style="55"/>
     <col min="1037" max="1038" width="22" style="55" customWidth="1"/>
-    <col min="1039" max="1280" width="9.140625" style="55"/>
+    <col min="1039" max="1280" width="9.109375" style="55"/>
     <col min="1281" max="1282" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="13.140625" style="55" customWidth="1"/>
-    <col min="1288" max="1288" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="13.109375" style="55" customWidth="1"/>
+    <col min="1288" max="1288" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="1289" max="1289" width="26" style="55" customWidth="1"/>
-    <col min="1290" max="1290" width="34.85546875" style="55" customWidth="1"/>
+    <col min="1290" max="1290" width="34.88671875" style="55" customWidth="1"/>
     <col min="1291" max="1291" width="19" style="55" customWidth="1"/>
-    <col min="1292" max="1292" width="9.140625" style="55"/>
+    <col min="1292" max="1292" width="9.109375" style="55"/>
     <col min="1293" max="1294" width="22" style="55" customWidth="1"/>
-    <col min="1295" max="1536" width="9.140625" style="55"/>
+    <col min="1295" max="1536" width="9.109375" style="55"/>
     <col min="1537" max="1538" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="13.140625" style="55" customWidth="1"/>
-    <col min="1544" max="1544" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="13.109375" style="55" customWidth="1"/>
+    <col min="1544" max="1544" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="1545" max="1545" width="26" style="55" customWidth="1"/>
-    <col min="1546" max="1546" width="34.85546875" style="55" customWidth="1"/>
+    <col min="1546" max="1546" width="34.88671875" style="55" customWidth="1"/>
     <col min="1547" max="1547" width="19" style="55" customWidth="1"/>
-    <col min="1548" max="1548" width="9.140625" style="55"/>
+    <col min="1548" max="1548" width="9.109375" style="55"/>
     <col min="1549" max="1550" width="22" style="55" customWidth="1"/>
-    <col min="1551" max="1792" width="9.140625" style="55"/>
+    <col min="1551" max="1792" width="9.109375" style="55"/>
     <col min="1793" max="1794" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="13.140625" style="55" customWidth="1"/>
-    <col min="1800" max="1800" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="13.109375" style="55" customWidth="1"/>
+    <col min="1800" max="1800" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="1801" max="1801" width="26" style="55" customWidth="1"/>
-    <col min="1802" max="1802" width="34.85546875" style="55" customWidth="1"/>
+    <col min="1802" max="1802" width="34.88671875" style="55" customWidth="1"/>
     <col min="1803" max="1803" width="19" style="55" customWidth="1"/>
-    <col min="1804" max="1804" width="9.140625" style="55"/>
+    <col min="1804" max="1804" width="9.109375" style="55"/>
     <col min="1805" max="1806" width="22" style="55" customWidth="1"/>
-    <col min="1807" max="2048" width="9.140625" style="55"/>
+    <col min="1807" max="2048" width="9.109375" style="55"/>
     <col min="2049" max="2050" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="13.140625" style="55" customWidth="1"/>
-    <col min="2056" max="2056" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="13.109375" style="55" customWidth="1"/>
+    <col min="2056" max="2056" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="2057" max="2057" width="26" style="55" customWidth="1"/>
-    <col min="2058" max="2058" width="34.85546875" style="55" customWidth="1"/>
+    <col min="2058" max="2058" width="34.88671875" style="55" customWidth="1"/>
     <col min="2059" max="2059" width="19" style="55" customWidth="1"/>
-    <col min="2060" max="2060" width="9.140625" style="55"/>
+    <col min="2060" max="2060" width="9.109375" style="55"/>
     <col min="2061" max="2062" width="22" style="55" customWidth="1"/>
-    <col min="2063" max="2304" width="9.140625" style="55"/>
+    <col min="2063" max="2304" width="9.109375" style="55"/>
     <col min="2305" max="2306" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="13.140625" style="55" customWidth="1"/>
-    <col min="2312" max="2312" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="13.109375" style="55" customWidth="1"/>
+    <col min="2312" max="2312" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="2313" max="2313" width="26" style="55" customWidth="1"/>
-    <col min="2314" max="2314" width="34.85546875" style="55" customWidth="1"/>
+    <col min="2314" max="2314" width="34.88671875" style="55" customWidth="1"/>
     <col min="2315" max="2315" width="19" style="55" customWidth="1"/>
-    <col min="2316" max="2316" width="9.140625" style="55"/>
+    <col min="2316" max="2316" width="9.109375" style="55"/>
     <col min="2317" max="2318" width="22" style="55" customWidth="1"/>
-    <col min="2319" max="2560" width="9.140625" style="55"/>
+    <col min="2319" max="2560" width="9.109375" style="55"/>
     <col min="2561" max="2562" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="13.140625" style="55" customWidth="1"/>
-    <col min="2568" max="2568" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="13.109375" style="55" customWidth="1"/>
+    <col min="2568" max="2568" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="2569" max="2569" width="26" style="55" customWidth="1"/>
-    <col min="2570" max="2570" width="34.85546875" style="55" customWidth="1"/>
+    <col min="2570" max="2570" width="34.88671875" style="55" customWidth="1"/>
     <col min="2571" max="2571" width="19" style="55" customWidth="1"/>
-    <col min="2572" max="2572" width="9.140625" style="55"/>
+    <col min="2572" max="2572" width="9.109375" style="55"/>
     <col min="2573" max="2574" width="22" style="55" customWidth="1"/>
-    <col min="2575" max="2816" width="9.140625" style="55"/>
+    <col min="2575" max="2816" width="9.109375" style="55"/>
     <col min="2817" max="2818" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="13.140625" style="55" customWidth="1"/>
-    <col min="2824" max="2824" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="13.109375" style="55" customWidth="1"/>
+    <col min="2824" max="2824" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="2825" max="2825" width="26" style="55" customWidth="1"/>
-    <col min="2826" max="2826" width="34.85546875" style="55" customWidth="1"/>
+    <col min="2826" max="2826" width="34.88671875" style="55" customWidth="1"/>
     <col min="2827" max="2827" width="19" style="55" customWidth="1"/>
-    <col min="2828" max="2828" width="9.140625" style="55"/>
+    <col min="2828" max="2828" width="9.109375" style="55"/>
     <col min="2829" max="2830" width="22" style="55" customWidth="1"/>
-    <col min="2831" max="3072" width="9.140625" style="55"/>
+    <col min="2831" max="3072" width="9.109375" style="55"/>
     <col min="3073" max="3074" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="13.140625" style="55" customWidth="1"/>
-    <col min="3080" max="3080" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="13.109375" style="55" customWidth="1"/>
+    <col min="3080" max="3080" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="3081" max="3081" width="26" style="55" customWidth="1"/>
-    <col min="3082" max="3082" width="34.85546875" style="55" customWidth="1"/>
+    <col min="3082" max="3082" width="34.88671875" style="55" customWidth="1"/>
     <col min="3083" max="3083" width="19" style="55" customWidth="1"/>
-    <col min="3084" max="3084" width="9.140625" style="55"/>
+    <col min="3084" max="3084" width="9.109375" style="55"/>
     <col min="3085" max="3086" width="22" style="55" customWidth="1"/>
-    <col min="3087" max="3328" width="9.140625" style="55"/>
+    <col min="3087" max="3328" width="9.109375" style="55"/>
     <col min="3329" max="3330" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="13.140625" style="55" customWidth="1"/>
-    <col min="3336" max="3336" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="13.109375" style="55" customWidth="1"/>
+    <col min="3336" max="3336" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="3337" max="3337" width="26" style="55" customWidth="1"/>
-    <col min="3338" max="3338" width="34.85546875" style="55" customWidth="1"/>
+    <col min="3338" max="3338" width="34.88671875" style="55" customWidth="1"/>
     <col min="3339" max="3339" width="19" style="55" customWidth="1"/>
-    <col min="3340" max="3340" width="9.140625" style="55"/>
+    <col min="3340" max="3340" width="9.109375" style="55"/>
     <col min="3341" max="3342" width="22" style="55" customWidth="1"/>
-    <col min="3343" max="3584" width="9.140625" style="55"/>
+    <col min="3343" max="3584" width="9.109375" style="55"/>
     <col min="3585" max="3586" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="13.140625" style="55" customWidth="1"/>
-    <col min="3592" max="3592" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="13.109375" style="55" customWidth="1"/>
+    <col min="3592" max="3592" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="3593" max="3593" width="26" style="55" customWidth="1"/>
-    <col min="3594" max="3594" width="34.85546875" style="55" customWidth="1"/>
+    <col min="3594" max="3594" width="34.88671875" style="55" customWidth="1"/>
     <col min="3595" max="3595" width="19" style="55" customWidth="1"/>
-    <col min="3596" max="3596" width="9.140625" style="55"/>
+    <col min="3596" max="3596" width="9.109375" style="55"/>
     <col min="3597" max="3598" width="22" style="55" customWidth="1"/>
-    <col min="3599" max="3840" width="9.140625" style="55"/>
+    <col min="3599" max="3840" width="9.109375" style="55"/>
     <col min="3841" max="3842" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="13.140625" style="55" customWidth="1"/>
-    <col min="3848" max="3848" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="13.109375" style="55" customWidth="1"/>
+    <col min="3848" max="3848" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="3849" max="3849" width="26" style="55" customWidth="1"/>
-    <col min="3850" max="3850" width="34.85546875" style="55" customWidth="1"/>
+    <col min="3850" max="3850" width="34.88671875" style="55" customWidth="1"/>
     <col min="3851" max="3851" width="19" style="55" customWidth="1"/>
-    <col min="3852" max="3852" width="9.140625" style="55"/>
+    <col min="3852" max="3852" width="9.109375" style="55"/>
     <col min="3853" max="3854" width="22" style="55" customWidth="1"/>
-    <col min="3855" max="4096" width="9.140625" style="55"/>
+    <col min="3855" max="4096" width="9.109375" style="55"/>
     <col min="4097" max="4098" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="13.140625" style="55" customWidth="1"/>
-    <col min="4104" max="4104" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="13.109375" style="55" customWidth="1"/>
+    <col min="4104" max="4104" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="4105" max="4105" width="26" style="55" customWidth="1"/>
-    <col min="4106" max="4106" width="34.85546875" style="55" customWidth="1"/>
+    <col min="4106" max="4106" width="34.88671875" style="55" customWidth="1"/>
     <col min="4107" max="4107" width="19" style="55" customWidth="1"/>
-    <col min="4108" max="4108" width="9.140625" style="55"/>
+    <col min="4108" max="4108" width="9.109375" style="55"/>
     <col min="4109" max="4110" width="22" style="55" customWidth="1"/>
-    <col min="4111" max="4352" width="9.140625" style="55"/>
+    <col min="4111" max="4352" width="9.109375" style="55"/>
     <col min="4353" max="4354" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="13.140625" style="55" customWidth="1"/>
-    <col min="4360" max="4360" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="13.109375" style="55" customWidth="1"/>
+    <col min="4360" max="4360" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="4361" max="4361" width="26" style="55" customWidth="1"/>
-    <col min="4362" max="4362" width="34.85546875" style="55" customWidth="1"/>
+    <col min="4362" max="4362" width="34.88671875" style="55" customWidth="1"/>
     <col min="4363" max="4363" width="19" style="55" customWidth="1"/>
-    <col min="4364" max="4364" width="9.140625" style="55"/>
+    <col min="4364" max="4364" width="9.109375" style="55"/>
     <col min="4365" max="4366" width="22" style="55" customWidth="1"/>
-    <col min="4367" max="4608" width="9.140625" style="55"/>
+    <col min="4367" max="4608" width="9.109375" style="55"/>
     <col min="4609" max="4610" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="13.140625" style="55" customWidth="1"/>
-    <col min="4616" max="4616" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="13.109375" style="55" customWidth="1"/>
+    <col min="4616" max="4616" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="4617" max="4617" width="26" style="55" customWidth="1"/>
-    <col min="4618" max="4618" width="34.85546875" style="55" customWidth="1"/>
+    <col min="4618" max="4618" width="34.88671875" style="55" customWidth="1"/>
     <col min="4619" max="4619" width="19" style="55" customWidth="1"/>
-    <col min="4620" max="4620" width="9.140625" style="55"/>
+    <col min="4620" max="4620" width="9.109375" style="55"/>
     <col min="4621" max="4622" width="22" style="55" customWidth="1"/>
-    <col min="4623" max="4864" width="9.140625" style="55"/>
+    <col min="4623" max="4864" width="9.109375" style="55"/>
     <col min="4865" max="4866" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="13.140625" style="55" customWidth="1"/>
-    <col min="4872" max="4872" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="13.109375" style="55" customWidth="1"/>
+    <col min="4872" max="4872" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="4873" max="4873" width="26" style="55" customWidth="1"/>
-    <col min="4874" max="4874" width="34.85546875" style="55" customWidth="1"/>
+    <col min="4874" max="4874" width="34.88671875" style="55" customWidth="1"/>
     <col min="4875" max="4875" width="19" style="55" customWidth="1"/>
-    <col min="4876" max="4876" width="9.140625" style="55"/>
+    <col min="4876" max="4876" width="9.109375" style="55"/>
     <col min="4877" max="4878" width="22" style="55" customWidth="1"/>
-    <col min="4879" max="5120" width="9.140625" style="55"/>
+    <col min="4879" max="5120" width="9.109375" style="55"/>
     <col min="5121" max="5122" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="13.140625" style="55" customWidth="1"/>
-    <col min="5128" max="5128" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="13.109375" style="55" customWidth="1"/>
+    <col min="5128" max="5128" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="5129" max="5129" width="26" style="55" customWidth="1"/>
-    <col min="5130" max="5130" width="34.85546875" style="55" customWidth="1"/>
+    <col min="5130" max="5130" width="34.88671875" style="55" customWidth="1"/>
     <col min="5131" max="5131" width="19" style="55" customWidth="1"/>
-    <col min="5132" max="5132" width="9.140625" style="55"/>
+    <col min="5132" max="5132" width="9.109375" style="55"/>
     <col min="5133" max="5134" width="22" style="55" customWidth="1"/>
-    <col min="5135" max="5376" width="9.140625" style="55"/>
+    <col min="5135" max="5376" width="9.109375" style="55"/>
     <col min="5377" max="5378" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="13.140625" style="55" customWidth="1"/>
-    <col min="5384" max="5384" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="13.109375" style="55" customWidth="1"/>
+    <col min="5384" max="5384" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="5385" max="5385" width="26" style="55" customWidth="1"/>
-    <col min="5386" max="5386" width="34.85546875" style="55" customWidth="1"/>
+    <col min="5386" max="5386" width="34.88671875" style="55" customWidth="1"/>
     <col min="5387" max="5387" width="19" style="55" customWidth="1"/>
-    <col min="5388" max="5388" width="9.140625" style="55"/>
+    <col min="5388" max="5388" width="9.109375" style="55"/>
     <col min="5389" max="5390" width="22" style="55" customWidth="1"/>
-    <col min="5391" max="5632" width="9.140625" style="55"/>
+    <col min="5391" max="5632" width="9.109375" style="55"/>
     <col min="5633" max="5634" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="13.140625" style="55" customWidth="1"/>
-    <col min="5640" max="5640" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="13.109375" style="55" customWidth="1"/>
+    <col min="5640" max="5640" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="5641" max="5641" width="26" style="55" customWidth="1"/>
-    <col min="5642" max="5642" width="34.85546875" style="55" customWidth="1"/>
+    <col min="5642" max="5642" width="34.88671875" style="55" customWidth="1"/>
     <col min="5643" max="5643" width="19" style="55" customWidth="1"/>
-    <col min="5644" max="5644" width="9.140625" style="55"/>
+    <col min="5644" max="5644" width="9.109375" style="55"/>
     <col min="5645" max="5646" width="22" style="55" customWidth="1"/>
-    <col min="5647" max="5888" width="9.140625" style="55"/>
+    <col min="5647" max="5888" width="9.109375" style="55"/>
     <col min="5889" max="5890" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="13.140625" style="55" customWidth="1"/>
-    <col min="5896" max="5896" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="13.109375" style="55" customWidth="1"/>
+    <col min="5896" max="5896" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="5897" max="5897" width="26" style="55" customWidth="1"/>
-    <col min="5898" max="5898" width="34.85546875" style="55" customWidth="1"/>
+    <col min="5898" max="5898" width="34.88671875" style="55" customWidth="1"/>
     <col min="5899" max="5899" width="19" style="55" customWidth="1"/>
-    <col min="5900" max="5900" width="9.140625" style="55"/>
+    <col min="5900" max="5900" width="9.109375" style="55"/>
     <col min="5901" max="5902" width="22" style="55" customWidth="1"/>
-    <col min="5903" max="6144" width="9.140625" style="55"/>
+    <col min="5903" max="6144" width="9.109375" style="55"/>
     <col min="6145" max="6146" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="13.140625" style="55" customWidth="1"/>
-    <col min="6152" max="6152" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="13.109375" style="55" customWidth="1"/>
+    <col min="6152" max="6152" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="6153" max="6153" width="26" style="55" customWidth="1"/>
-    <col min="6154" max="6154" width="34.85546875" style="55" customWidth="1"/>
+    <col min="6154" max="6154" width="34.88671875" style="55" customWidth="1"/>
     <col min="6155" max="6155" width="19" style="55" customWidth="1"/>
-    <col min="6156" max="6156" width="9.140625" style="55"/>
+    <col min="6156" max="6156" width="9.109375" style="55"/>
     <col min="6157" max="6158" width="22" style="55" customWidth="1"/>
-    <col min="6159" max="6400" width="9.140625" style="55"/>
+    <col min="6159" max="6400" width="9.109375" style="55"/>
     <col min="6401" max="6402" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="13.140625" style="55" customWidth="1"/>
-    <col min="6408" max="6408" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="13.109375" style="55" customWidth="1"/>
+    <col min="6408" max="6408" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="6409" max="6409" width="26" style="55" customWidth="1"/>
-    <col min="6410" max="6410" width="34.85546875" style="55" customWidth="1"/>
+    <col min="6410" max="6410" width="34.88671875" style="55" customWidth="1"/>
     <col min="6411" max="6411" width="19" style="55" customWidth="1"/>
-    <col min="6412" max="6412" width="9.140625" style="55"/>
+    <col min="6412" max="6412" width="9.109375" style="55"/>
     <col min="6413" max="6414" width="22" style="55" customWidth="1"/>
-    <col min="6415" max="6656" width="9.140625" style="55"/>
+    <col min="6415" max="6656" width="9.109375" style="55"/>
     <col min="6657" max="6658" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="13.140625" style="55" customWidth="1"/>
-    <col min="6664" max="6664" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="13.109375" style="55" customWidth="1"/>
+    <col min="6664" max="6664" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="6665" max="6665" width="26" style="55" customWidth="1"/>
-    <col min="6666" max="6666" width="34.85546875" style="55" customWidth="1"/>
+    <col min="6666" max="6666" width="34.88671875" style="55" customWidth="1"/>
     <col min="6667" max="6667" width="19" style="55" customWidth="1"/>
-    <col min="6668" max="6668" width="9.140625" style="55"/>
+    <col min="6668" max="6668" width="9.109375" style="55"/>
     <col min="6669" max="6670" width="22" style="55" customWidth="1"/>
-    <col min="6671" max="6912" width="9.140625" style="55"/>
+    <col min="6671" max="6912" width="9.109375" style="55"/>
     <col min="6913" max="6914" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="13.140625" style="55" customWidth="1"/>
-    <col min="6920" max="6920" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="13.109375" style="55" customWidth="1"/>
+    <col min="6920" max="6920" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="6921" max="6921" width="26" style="55" customWidth="1"/>
-    <col min="6922" max="6922" width="34.85546875" style="55" customWidth="1"/>
+    <col min="6922" max="6922" width="34.88671875" style="55" customWidth="1"/>
     <col min="6923" max="6923" width="19" style="55" customWidth="1"/>
-    <col min="6924" max="6924" width="9.140625" style="55"/>
+    <col min="6924" max="6924" width="9.109375" style="55"/>
     <col min="6925" max="6926" width="22" style="55" customWidth="1"/>
-    <col min="6927" max="7168" width="9.140625" style="55"/>
+    <col min="6927" max="7168" width="9.109375" style="55"/>
     <col min="7169" max="7170" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="13.140625" style="55" customWidth="1"/>
-    <col min="7176" max="7176" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="13.109375" style="55" customWidth="1"/>
+    <col min="7176" max="7176" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="7177" max="7177" width="26" style="55" customWidth="1"/>
-    <col min="7178" max="7178" width="34.85546875" style="55" customWidth="1"/>
+    <col min="7178" max="7178" width="34.88671875" style="55" customWidth="1"/>
     <col min="7179" max="7179" width="19" style="55" customWidth="1"/>
-    <col min="7180" max="7180" width="9.140625" style="55"/>
+    <col min="7180" max="7180" width="9.109375" style="55"/>
     <col min="7181" max="7182" width="22" style="55" customWidth="1"/>
-    <col min="7183" max="7424" width="9.140625" style="55"/>
+    <col min="7183" max="7424" width="9.109375" style="55"/>
     <col min="7425" max="7426" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="13.140625" style="55" customWidth="1"/>
-    <col min="7432" max="7432" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="13.109375" style="55" customWidth="1"/>
+    <col min="7432" max="7432" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="7433" max="7433" width="26" style="55" customWidth="1"/>
-    <col min="7434" max="7434" width="34.85546875" style="55" customWidth="1"/>
+    <col min="7434" max="7434" width="34.88671875" style="55" customWidth="1"/>
     <col min="7435" max="7435" width="19" style="55" customWidth="1"/>
-    <col min="7436" max="7436" width="9.140625" style="55"/>
+    <col min="7436" max="7436" width="9.109375" style="55"/>
     <col min="7437" max="7438" width="22" style="55" customWidth="1"/>
-    <col min="7439" max="7680" width="9.140625" style="55"/>
+    <col min="7439" max="7680" width="9.109375" style="55"/>
     <col min="7681" max="7682" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="13.140625" style="55" customWidth="1"/>
-    <col min="7688" max="7688" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="13.109375" style="55" customWidth="1"/>
+    <col min="7688" max="7688" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="7689" max="7689" width="26" style="55" customWidth="1"/>
-    <col min="7690" max="7690" width="34.85546875" style="55" customWidth="1"/>
+    <col min="7690" max="7690" width="34.88671875" style="55" customWidth="1"/>
     <col min="7691" max="7691" width="19" style="55" customWidth="1"/>
-    <col min="7692" max="7692" width="9.140625" style="55"/>
+    <col min="7692" max="7692" width="9.109375" style="55"/>
     <col min="7693" max="7694" width="22" style="55" customWidth="1"/>
-    <col min="7695" max="7936" width="9.140625" style="55"/>
+    <col min="7695" max="7936" width="9.109375" style="55"/>
     <col min="7937" max="7938" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="13.140625" style="55" customWidth="1"/>
-    <col min="7944" max="7944" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="13.109375" style="55" customWidth="1"/>
+    <col min="7944" max="7944" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="7945" max="7945" width="26" style="55" customWidth="1"/>
-    <col min="7946" max="7946" width="34.85546875" style="55" customWidth="1"/>
+    <col min="7946" max="7946" width="34.88671875" style="55" customWidth="1"/>
     <col min="7947" max="7947" width="19" style="55" customWidth="1"/>
-    <col min="7948" max="7948" width="9.140625" style="55"/>
+    <col min="7948" max="7948" width="9.109375" style="55"/>
     <col min="7949" max="7950" width="22" style="55" customWidth="1"/>
-    <col min="7951" max="8192" width="9.140625" style="55"/>
+    <col min="7951" max="8192" width="9.109375" style="55"/>
     <col min="8193" max="8194" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="13.140625" style="55" customWidth="1"/>
-    <col min="8200" max="8200" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="13.109375" style="55" customWidth="1"/>
+    <col min="8200" max="8200" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="8201" max="8201" width="26" style="55" customWidth="1"/>
-    <col min="8202" max="8202" width="34.85546875" style="55" customWidth="1"/>
+    <col min="8202" max="8202" width="34.88671875" style="55" customWidth="1"/>
     <col min="8203" max="8203" width="19" style="55" customWidth="1"/>
-    <col min="8204" max="8204" width="9.140625" style="55"/>
+    <col min="8204" max="8204" width="9.109375" style="55"/>
     <col min="8205" max="8206" width="22" style="55" customWidth="1"/>
-    <col min="8207" max="8448" width="9.140625" style="55"/>
+    <col min="8207" max="8448" width="9.109375" style="55"/>
     <col min="8449" max="8450" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="13.140625" style="55" customWidth="1"/>
-    <col min="8456" max="8456" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="13.109375" style="55" customWidth="1"/>
+    <col min="8456" max="8456" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="8457" max="8457" width="26" style="55" customWidth="1"/>
-    <col min="8458" max="8458" width="34.85546875" style="55" customWidth="1"/>
+    <col min="8458" max="8458" width="34.88671875" style="55" customWidth="1"/>
     <col min="8459" max="8459" width="19" style="55" customWidth="1"/>
-    <col min="8460" max="8460" width="9.140625" style="55"/>
+    <col min="8460" max="8460" width="9.109375" style="55"/>
     <col min="8461" max="8462" width="22" style="55" customWidth="1"/>
-    <col min="8463" max="8704" width="9.140625" style="55"/>
+    <col min="8463" max="8704" width="9.109375" style="55"/>
     <col min="8705" max="8706" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="13.140625" style="55" customWidth="1"/>
-    <col min="8712" max="8712" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="13.109375" style="55" customWidth="1"/>
+    <col min="8712" max="8712" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="8713" max="8713" width="26" style="55" customWidth="1"/>
-    <col min="8714" max="8714" width="34.85546875" style="55" customWidth="1"/>
+    <col min="8714" max="8714" width="34.88671875" style="55" customWidth="1"/>
     <col min="8715" max="8715" width="19" style="55" customWidth="1"/>
-    <col min="8716" max="8716" width="9.140625" style="55"/>
+    <col min="8716" max="8716" width="9.109375" style="55"/>
     <col min="8717" max="8718" width="22" style="55" customWidth="1"/>
-    <col min="8719" max="8960" width="9.140625" style="55"/>
+    <col min="8719" max="8960" width="9.109375" style="55"/>
     <col min="8961" max="8962" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="13.140625" style="55" customWidth="1"/>
-    <col min="8968" max="8968" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="13.109375" style="55" customWidth="1"/>
+    <col min="8968" max="8968" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="8969" max="8969" width="26" style="55" customWidth="1"/>
-    <col min="8970" max="8970" width="34.85546875" style="55" customWidth="1"/>
+    <col min="8970" max="8970" width="34.88671875" style="55" customWidth="1"/>
     <col min="8971" max="8971" width="19" style="55" customWidth="1"/>
-    <col min="8972" max="8972" width="9.140625" style="55"/>
+    <col min="8972" max="8972" width="9.109375" style="55"/>
     <col min="8973" max="8974" width="22" style="55" customWidth="1"/>
-    <col min="8975" max="9216" width="9.140625" style="55"/>
+    <col min="8975" max="9216" width="9.109375" style="55"/>
     <col min="9217" max="9218" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="13.140625" style="55" customWidth="1"/>
-    <col min="9224" max="9224" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="13.109375" style="55" customWidth="1"/>
+    <col min="9224" max="9224" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="9225" max="9225" width="26" style="55" customWidth="1"/>
-    <col min="9226" max="9226" width="34.85546875" style="55" customWidth="1"/>
+    <col min="9226" max="9226" width="34.88671875" style="55" customWidth="1"/>
     <col min="9227" max="9227" width="19" style="55" customWidth="1"/>
-    <col min="9228" max="9228" width="9.140625" style="55"/>
+    <col min="9228" max="9228" width="9.109375" style="55"/>
     <col min="9229" max="9230" width="22" style="55" customWidth="1"/>
-    <col min="9231" max="9472" width="9.140625" style="55"/>
+    <col min="9231" max="9472" width="9.109375" style="55"/>
     <col min="9473" max="9474" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="13.140625" style="55" customWidth="1"/>
-    <col min="9480" max="9480" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="13.109375" style="55" customWidth="1"/>
+    <col min="9480" max="9480" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="9481" max="9481" width="26" style="55" customWidth="1"/>
-    <col min="9482" max="9482" width="34.85546875" style="55" customWidth="1"/>
+    <col min="9482" max="9482" width="34.88671875" style="55" customWidth="1"/>
     <col min="9483" max="9483" width="19" style="55" customWidth="1"/>
-    <col min="9484" max="9484" width="9.140625" style="55"/>
+    <col min="9484" max="9484" width="9.109375" style="55"/>
     <col min="9485" max="9486" width="22" style="55" customWidth="1"/>
-    <col min="9487" max="9728" width="9.140625" style="55"/>
+    <col min="9487" max="9728" width="9.109375" style="55"/>
     <col min="9729" max="9730" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="13.140625" style="55" customWidth="1"/>
-    <col min="9736" max="9736" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="13.109375" style="55" customWidth="1"/>
+    <col min="9736" max="9736" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="9737" max="9737" width="26" style="55" customWidth="1"/>
-    <col min="9738" max="9738" width="34.85546875" style="55" customWidth="1"/>
+    <col min="9738" max="9738" width="34.88671875" style="55" customWidth="1"/>
     <col min="9739" max="9739" width="19" style="55" customWidth="1"/>
-    <col min="9740" max="9740" width="9.140625" style="55"/>
+    <col min="9740" max="9740" width="9.109375" style="55"/>
     <col min="9741" max="9742" width="22" style="55" customWidth="1"/>
-    <col min="9743" max="9984" width="9.140625" style="55"/>
+    <col min="9743" max="9984" width="9.109375" style="55"/>
     <col min="9985" max="9986" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="13.140625" style="55" customWidth="1"/>
-    <col min="9992" max="9992" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="13.109375" style="55" customWidth="1"/>
+    <col min="9992" max="9992" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="9993" max="9993" width="26" style="55" customWidth="1"/>
-    <col min="9994" max="9994" width="34.85546875" style="55" customWidth="1"/>
+    <col min="9994" max="9994" width="34.88671875" style="55" customWidth="1"/>
     <col min="9995" max="9995" width="19" style="55" customWidth="1"/>
-    <col min="9996" max="9996" width="9.140625" style="55"/>
+    <col min="9996" max="9996" width="9.109375" style="55"/>
     <col min="9997" max="9998" width="22" style="55" customWidth="1"/>
-    <col min="9999" max="10240" width="9.140625" style="55"/>
+    <col min="9999" max="10240" width="9.109375" style="55"/>
     <col min="10241" max="10242" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="13.140625" style="55" customWidth="1"/>
-    <col min="10248" max="10248" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="13.109375" style="55" customWidth="1"/>
+    <col min="10248" max="10248" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="10249" max="10249" width="26" style="55" customWidth="1"/>
-    <col min="10250" max="10250" width="34.85546875" style="55" customWidth="1"/>
+    <col min="10250" max="10250" width="34.88671875" style="55" customWidth="1"/>
     <col min="10251" max="10251" width="19" style="55" customWidth="1"/>
-    <col min="10252" max="10252" width="9.140625" style="55"/>
+    <col min="10252" max="10252" width="9.109375" style="55"/>
     <col min="10253" max="10254" width="22" style="55" customWidth="1"/>
-    <col min="10255" max="10496" width="9.140625" style="55"/>
+    <col min="10255" max="10496" width="9.109375" style="55"/>
     <col min="10497" max="10498" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="13.140625" style="55" customWidth="1"/>
-    <col min="10504" max="10504" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="13.109375" style="55" customWidth="1"/>
+    <col min="10504" max="10504" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="10505" max="10505" width="26" style="55" customWidth="1"/>
-    <col min="10506" max="10506" width="34.85546875" style="55" customWidth="1"/>
+    <col min="10506" max="10506" width="34.88671875" style="55" customWidth="1"/>
     <col min="10507" max="10507" width="19" style="55" customWidth="1"/>
-    <col min="10508" max="10508" width="9.140625" style="55"/>
+    <col min="10508" max="10508" width="9.109375" style="55"/>
     <col min="10509" max="10510" width="22" style="55" customWidth="1"/>
-    <col min="10511" max="10752" width="9.140625" style="55"/>
+    <col min="10511" max="10752" width="9.109375" style="55"/>
     <col min="10753" max="10754" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="13.140625" style="55" customWidth="1"/>
-    <col min="10760" max="10760" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="13.109375" style="55" customWidth="1"/>
+    <col min="10760" max="10760" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="10761" max="10761" width="26" style="55" customWidth="1"/>
-    <col min="10762" max="10762" width="34.85546875" style="55" customWidth="1"/>
+    <col min="10762" max="10762" width="34.88671875" style="55" customWidth="1"/>
     <col min="10763" max="10763" width="19" style="55" customWidth="1"/>
-    <col min="10764" max="10764" width="9.140625" style="55"/>
+    <col min="10764" max="10764" width="9.109375" style="55"/>
     <col min="10765" max="10766" width="22" style="55" customWidth="1"/>
-    <col min="10767" max="11008" width="9.140625" style="55"/>
+    <col min="10767" max="11008" width="9.109375" style="55"/>
     <col min="11009" max="11010" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="13.140625" style="55" customWidth="1"/>
-    <col min="11016" max="11016" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="13.109375" style="55" customWidth="1"/>
+    <col min="11016" max="11016" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="11017" max="11017" width="26" style="55" customWidth="1"/>
-    <col min="11018" max="11018" width="34.85546875" style="55" customWidth="1"/>
+    <col min="11018" max="11018" width="34.88671875" style="55" customWidth="1"/>
     <col min="11019" max="11019" width="19" style="55" customWidth="1"/>
-    <col min="11020" max="11020" width="9.140625" style="55"/>
+    <col min="11020" max="11020" width="9.109375" style="55"/>
     <col min="11021" max="11022" width="22" style="55" customWidth="1"/>
-    <col min="11023" max="11264" width="9.140625" style="55"/>
+    <col min="11023" max="11264" width="9.109375" style="55"/>
     <col min="11265" max="11266" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="13.140625" style="55" customWidth="1"/>
-    <col min="11272" max="11272" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="13.109375" style="55" customWidth="1"/>
+    <col min="11272" max="11272" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="11273" max="11273" width="26" style="55" customWidth="1"/>
-    <col min="11274" max="11274" width="34.85546875" style="55" customWidth="1"/>
+    <col min="11274" max="11274" width="34.88671875" style="55" customWidth="1"/>
     <col min="11275" max="11275" width="19" style="55" customWidth="1"/>
-    <col min="11276" max="11276" width="9.140625" style="55"/>
+    <col min="11276" max="11276" width="9.109375" style="55"/>
     <col min="11277" max="11278" width="22" style="55" customWidth="1"/>
-    <col min="11279" max="11520" width="9.140625" style="55"/>
+    <col min="11279" max="11520" width="9.109375" style="55"/>
     <col min="11521" max="11522" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="13.140625" style="55" customWidth="1"/>
-    <col min="11528" max="11528" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="13.109375" style="55" customWidth="1"/>
+    <col min="11528" max="11528" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="11529" max="11529" width="26" style="55" customWidth="1"/>
-    <col min="11530" max="11530" width="34.85546875" style="55" customWidth="1"/>
+    <col min="11530" max="11530" width="34.88671875" style="55" customWidth="1"/>
     <col min="11531" max="11531" width="19" style="55" customWidth="1"/>
-    <col min="11532" max="11532" width="9.140625" style="55"/>
+    <col min="11532" max="11532" width="9.109375" style="55"/>
     <col min="11533" max="11534" width="22" style="55" customWidth="1"/>
-    <col min="11535" max="11776" width="9.140625" style="55"/>
+    <col min="11535" max="11776" width="9.109375" style="55"/>
     <col min="11777" max="11778" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="13.140625" style="55" customWidth="1"/>
-    <col min="11784" max="11784" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="13.109375" style="55" customWidth="1"/>
+    <col min="11784" max="11784" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="11785" max="11785" width="26" style="55" customWidth="1"/>
-    <col min="11786" max="11786" width="34.85546875" style="55" customWidth="1"/>
+    <col min="11786" max="11786" width="34.88671875" style="55" customWidth="1"/>
     <col min="11787" max="11787" width="19" style="55" customWidth="1"/>
-    <col min="11788" max="11788" width="9.140625" style="55"/>
+    <col min="11788" max="11788" width="9.109375" style="55"/>
     <col min="11789" max="11790" width="22" style="55" customWidth="1"/>
-    <col min="11791" max="12032" width="9.140625" style="55"/>
+    <col min="11791" max="12032" width="9.109375" style="55"/>
     <col min="12033" max="12034" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="13.140625" style="55" customWidth="1"/>
-    <col min="12040" max="12040" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="13.109375" style="55" customWidth="1"/>
+    <col min="12040" max="12040" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="12041" max="12041" width="26" style="55" customWidth="1"/>
-    <col min="12042" max="12042" width="34.85546875" style="55" customWidth="1"/>
+    <col min="12042" max="12042" width="34.88671875" style="55" customWidth="1"/>
     <col min="12043" max="12043" width="19" style="55" customWidth="1"/>
-    <col min="12044" max="12044" width="9.140625" style="55"/>
+    <col min="12044" max="12044" width="9.109375" style="55"/>
     <col min="12045" max="12046" width="22" style="55" customWidth="1"/>
-    <col min="12047" max="12288" width="9.140625" style="55"/>
+    <col min="12047" max="12288" width="9.109375" style="55"/>
     <col min="12289" max="12290" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="13.140625" style="55" customWidth="1"/>
-    <col min="12296" max="12296" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="13.109375" style="55" customWidth="1"/>
+    <col min="12296" max="12296" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="12297" max="12297" width="26" style="55" customWidth="1"/>
-    <col min="12298" max="12298" width="34.85546875" style="55" customWidth="1"/>
+    <col min="12298" max="12298" width="34.88671875" style="55" customWidth="1"/>
     <col min="12299" max="12299" width="19" style="55" customWidth="1"/>
-    <col min="12300" max="12300" width="9.140625" style="55"/>
+    <col min="12300" max="12300" width="9.109375" style="55"/>
     <col min="12301" max="12302" width="22" style="55" customWidth="1"/>
-    <col min="12303" max="12544" width="9.140625" style="55"/>
+    <col min="12303" max="12544" width="9.109375" style="55"/>
     <col min="12545" max="12546" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="13.140625" style="55" customWidth="1"/>
-    <col min="12552" max="12552" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="13.109375" style="55" customWidth="1"/>
+    <col min="12552" max="12552" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="12553" max="12553" width="26" style="55" customWidth="1"/>
-    <col min="12554" max="12554" width="34.85546875" style="55" customWidth="1"/>
+    <col min="12554" max="12554" width="34.88671875" style="55" customWidth="1"/>
     <col min="12555" max="12555" width="19" style="55" customWidth="1"/>
-    <col min="12556" max="12556" width="9.140625" style="55"/>
+    <col min="12556" max="12556" width="9.109375" style="55"/>
     <col min="12557" max="12558" width="22" style="55" customWidth="1"/>
-    <col min="12559" max="12800" width="9.140625" style="55"/>
+    <col min="12559" max="12800" width="9.109375" style="55"/>
     <col min="12801" max="12802" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="13.140625" style="55" customWidth="1"/>
-    <col min="12808" max="12808" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="13.109375" style="55" customWidth="1"/>
+    <col min="12808" max="12808" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="12809" max="12809" width="26" style="55" customWidth="1"/>
-    <col min="12810" max="12810" width="34.85546875" style="55" customWidth="1"/>
+    <col min="12810" max="12810" width="34.88671875" style="55" customWidth="1"/>
     <col min="12811" max="12811" width="19" style="55" customWidth="1"/>
-    <col min="12812" max="12812" width="9.140625" style="55"/>
+    <col min="12812" max="12812" width="9.109375" style="55"/>
     <col min="12813" max="12814" width="22" style="55" customWidth="1"/>
-    <col min="12815" max="13056" width="9.140625" style="55"/>
+    <col min="12815" max="13056" width="9.109375" style="55"/>
     <col min="13057" max="13058" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="13.140625" style="55" customWidth="1"/>
-    <col min="13064" max="13064" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="13.109375" style="55" customWidth="1"/>
+    <col min="13064" max="13064" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="13065" max="13065" width="26" style="55" customWidth="1"/>
-    <col min="13066" max="13066" width="34.85546875" style="55" customWidth="1"/>
+    <col min="13066" max="13066" width="34.88671875" style="55" customWidth="1"/>
     <col min="13067" max="13067" width="19" style="55" customWidth="1"/>
-    <col min="13068" max="13068" width="9.140625" style="55"/>
+    <col min="13068" max="13068" width="9.109375" style="55"/>
     <col min="13069" max="13070" width="22" style="55" customWidth="1"/>
-    <col min="13071" max="13312" width="9.140625" style="55"/>
+    <col min="13071" max="13312" width="9.109375" style="55"/>
     <col min="13313" max="13314" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="13.140625" style="55" customWidth="1"/>
-    <col min="13320" max="13320" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="13.109375" style="55" customWidth="1"/>
+    <col min="13320" max="13320" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="13321" max="13321" width="26" style="55" customWidth="1"/>
-    <col min="13322" max="13322" width="34.85546875" style="55" customWidth="1"/>
+    <col min="13322" max="13322" width="34.88671875" style="55" customWidth="1"/>
     <col min="13323" max="13323" width="19" style="55" customWidth="1"/>
-    <col min="13324" max="13324" width="9.140625" style="55"/>
+    <col min="13324" max="13324" width="9.109375" style="55"/>
     <col min="13325" max="13326" width="22" style="55" customWidth="1"/>
-    <col min="13327" max="13568" width="9.140625" style="55"/>
+    <col min="13327" max="13568" width="9.109375" style="55"/>
     <col min="13569" max="13570" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="13.140625" style="55" customWidth="1"/>
-    <col min="13576" max="13576" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="13.109375" style="55" customWidth="1"/>
+    <col min="13576" max="13576" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="13577" max="13577" width="26" style="55" customWidth="1"/>
-    <col min="13578" max="13578" width="34.85546875" style="55" customWidth="1"/>
+    <col min="13578" max="13578" width="34.88671875" style="55" customWidth="1"/>
     <col min="13579" max="13579" width="19" style="55" customWidth="1"/>
-    <col min="13580" max="13580" width="9.140625" style="55"/>
+    <col min="13580" max="13580" width="9.109375" style="55"/>
     <col min="13581" max="13582" width="22" style="55" customWidth="1"/>
-    <col min="13583" max="13824" width="9.140625" style="55"/>
+    <col min="13583" max="13824" width="9.109375" style="55"/>
     <col min="13825" max="13826" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="13.140625" style="55" customWidth="1"/>
-    <col min="13832" max="13832" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="13.109375" style="55" customWidth="1"/>
+    <col min="13832" max="13832" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="13833" max="13833" width="26" style="55" customWidth="1"/>
-    <col min="13834" max="13834" width="34.85546875" style="55" customWidth="1"/>
+    <col min="13834" max="13834" width="34.88671875" style="55" customWidth="1"/>
     <col min="13835" max="13835" width="19" style="55" customWidth="1"/>
-    <col min="13836" max="13836" width="9.140625" style="55"/>
+    <col min="13836" max="13836" width="9.109375" style="55"/>
     <col min="13837" max="13838" width="22" style="55" customWidth="1"/>
-    <col min="13839" max="14080" width="9.140625" style="55"/>
+    <col min="13839" max="14080" width="9.109375" style="55"/>
     <col min="14081" max="14082" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="13.140625" style="55" customWidth="1"/>
-    <col min="14088" max="14088" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="13.109375" style="55" customWidth="1"/>
+    <col min="14088" max="14088" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="14089" max="14089" width="26" style="55" customWidth="1"/>
-    <col min="14090" max="14090" width="34.85546875" style="55" customWidth="1"/>
+    <col min="14090" max="14090" width="34.88671875" style="55" customWidth="1"/>
     <col min="14091" max="14091" width="19" style="55" customWidth="1"/>
-    <col min="14092" max="14092" width="9.140625" style="55"/>
+    <col min="14092" max="14092" width="9.109375" style="55"/>
     <col min="14093" max="14094" width="22" style="55" customWidth="1"/>
-    <col min="14095" max="14336" width="9.140625" style="55"/>
+    <col min="14095" max="14336" width="9.109375" style="55"/>
     <col min="14337" max="14338" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="13.140625" style="55" customWidth="1"/>
-    <col min="14344" max="14344" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="13.109375" style="55" customWidth="1"/>
+    <col min="14344" max="14344" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="14345" max="14345" width="26" style="55" customWidth="1"/>
-    <col min="14346" max="14346" width="34.85546875" style="55" customWidth="1"/>
+    <col min="14346" max="14346" width="34.88671875" style="55" customWidth="1"/>
     <col min="14347" max="14347" width="19" style="55" customWidth="1"/>
-    <col min="14348" max="14348" width="9.140625" style="55"/>
+    <col min="14348" max="14348" width="9.109375" style="55"/>
     <col min="14349" max="14350" width="22" style="55" customWidth="1"/>
-    <col min="14351" max="14592" width="9.140625" style="55"/>
+    <col min="14351" max="14592" width="9.109375" style="55"/>
     <col min="14593" max="14594" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="13.140625" style="55" customWidth="1"/>
-    <col min="14600" max="14600" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="13.109375" style="55" customWidth="1"/>
+    <col min="14600" max="14600" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="14601" max="14601" width="26" style="55" customWidth="1"/>
-    <col min="14602" max="14602" width="34.85546875" style="55" customWidth="1"/>
+    <col min="14602" max="14602" width="34.88671875" style="55" customWidth="1"/>
     <col min="14603" max="14603" width="19" style="55" customWidth="1"/>
-    <col min="14604" max="14604" width="9.140625" style="55"/>
+    <col min="14604" max="14604" width="9.109375" style="55"/>
     <col min="14605" max="14606" width="22" style="55" customWidth="1"/>
-    <col min="14607" max="14848" width="9.140625" style="55"/>
+    <col min="14607" max="14848" width="9.109375" style="55"/>
     <col min="14849" max="14850" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="13.140625" style="55" customWidth="1"/>
-    <col min="14856" max="14856" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="13.109375" style="55" customWidth="1"/>
+    <col min="14856" max="14856" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="14857" max="14857" width="26" style="55" customWidth="1"/>
-    <col min="14858" max="14858" width="34.85546875" style="55" customWidth="1"/>
+    <col min="14858" max="14858" width="34.88671875" style="55" customWidth="1"/>
     <col min="14859" max="14859" width="19" style="55" customWidth="1"/>
-    <col min="14860" max="14860" width="9.140625" style="55"/>
+    <col min="14860" max="14860" width="9.109375" style="55"/>
     <col min="14861" max="14862" width="22" style="55" customWidth="1"/>
-    <col min="14863" max="15104" width="9.140625" style="55"/>
+    <col min="14863" max="15104" width="9.109375" style="55"/>
     <col min="15105" max="15106" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="13.140625" style="55" customWidth="1"/>
-    <col min="15112" max="15112" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="13.109375" style="55" customWidth="1"/>
+    <col min="15112" max="15112" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="15113" max="15113" width="26" style="55" customWidth="1"/>
-    <col min="15114" max="15114" width="34.85546875" style="55" customWidth="1"/>
+    <col min="15114" max="15114" width="34.88671875" style="55" customWidth="1"/>
     <col min="15115" max="15115" width="19" style="55" customWidth="1"/>
-    <col min="15116" max="15116" width="9.140625" style="55"/>
+    <col min="15116" max="15116" width="9.109375" style="55"/>
     <col min="15117" max="15118" width="22" style="55" customWidth="1"/>
-    <col min="15119" max="15360" width="9.140625" style="55"/>
+    <col min="15119" max="15360" width="9.109375" style="55"/>
     <col min="15361" max="15362" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="13.140625" style="55" customWidth="1"/>
-    <col min="15368" max="15368" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="13.109375" style="55" customWidth="1"/>
+    <col min="15368" max="15368" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="15369" max="15369" width="26" style="55" customWidth="1"/>
-    <col min="15370" max="15370" width="34.85546875" style="55" customWidth="1"/>
+    <col min="15370" max="15370" width="34.88671875" style="55" customWidth="1"/>
     <col min="15371" max="15371" width="19" style="55" customWidth="1"/>
-    <col min="15372" max="15372" width="9.140625" style="55"/>
+    <col min="15372" max="15372" width="9.109375" style="55"/>
     <col min="15373" max="15374" width="22" style="55" customWidth="1"/>
-    <col min="15375" max="15616" width="9.140625" style="55"/>
+    <col min="15375" max="15616" width="9.109375" style="55"/>
     <col min="15617" max="15618" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="13.140625" style="55" customWidth="1"/>
-    <col min="15624" max="15624" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="13.109375" style="55" customWidth="1"/>
+    <col min="15624" max="15624" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="15625" max="15625" width="26" style="55" customWidth="1"/>
-    <col min="15626" max="15626" width="34.85546875" style="55" customWidth="1"/>
+    <col min="15626" max="15626" width="34.88671875" style="55" customWidth="1"/>
     <col min="15627" max="15627" width="19" style="55" customWidth="1"/>
-    <col min="15628" max="15628" width="9.140625" style="55"/>
+    <col min="15628" max="15628" width="9.109375" style="55"/>
     <col min="15629" max="15630" width="22" style="55" customWidth="1"/>
-    <col min="15631" max="15872" width="9.140625" style="55"/>
+    <col min="15631" max="15872" width="9.109375" style="55"/>
     <col min="15873" max="15874" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="13.140625" style="55" customWidth="1"/>
-    <col min="15880" max="15880" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="13.109375" style="55" customWidth="1"/>
+    <col min="15880" max="15880" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="15881" max="15881" width="26" style="55" customWidth="1"/>
-    <col min="15882" max="15882" width="34.85546875" style="55" customWidth="1"/>
+    <col min="15882" max="15882" width="34.88671875" style="55" customWidth="1"/>
     <col min="15883" max="15883" width="19" style="55" customWidth="1"/>
-    <col min="15884" max="15884" width="9.140625" style="55"/>
+    <col min="15884" max="15884" width="9.109375" style="55"/>
     <col min="15885" max="15886" width="22" style="55" customWidth="1"/>
-    <col min="15887" max="16128" width="9.140625" style="55"/>
+    <col min="15887" max="16128" width="9.109375" style="55"/>
     <col min="16129" max="16130" width="7" style="55" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="13.140625" style="55" customWidth="1"/>
-    <col min="16136" max="16136" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="14.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="14.5546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="10.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="13.109375" style="55" customWidth="1"/>
+    <col min="16136" max="16136" width="6.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="16137" max="16137" width="26" style="55" customWidth="1"/>
-    <col min="16138" max="16138" width="34.85546875" style="55" customWidth="1"/>
+    <col min="16138" max="16138" width="34.88671875" style="55" customWidth="1"/>
     <col min="16139" max="16139" width="19" style="55" customWidth="1"/>
-    <col min="16140" max="16140" width="9.140625" style="55"/>
+    <col min="16140" max="16140" width="9.109375" style="55"/>
     <col min="16141" max="16142" width="22" style="55" customWidth="1"/>
-    <col min="16143" max="16384" width="9.140625" style="55"/>
+    <col min="16143" max="16384" width="9.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="54" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="54" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="162" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="163"/>
       <c r="C1" s="163"/>
@@ -18849,190 +18882,190 @@
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D3" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="57" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="57" t="s">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="57" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="57" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D6" s="57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="57" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="57" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D8" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D9" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="57" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="57" t="s">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="57" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="57" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D12" s="57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="57" t="s">
+    <row r="14" spans="1:11" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="58" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="58" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D15" s="57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D16" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D17" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D18" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D19" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D20" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D21" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D22" s="58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D23" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D24" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D25" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D26" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D27" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D28" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D29" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D30" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="4:4" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="D31" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="D32" s="61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="172" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="177" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="178"/>
+      <c r="E33" s="173"/>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D34" s="62">
         <v>4290</v>
       </c>
       <c r="E34" s="63" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.2">
       <c r="D35" s="62">
         <v>5082</v>
       </c>
       <c r="E35" s="63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.2">
       <c r="D36" s="62">
         <v>4356</v>
       </c>
       <c r="E36" s="63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.2">
       <c r="D37" s="62">
         <v>5929</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -19040,216 +19073,216 @@
         <v>5005</v>
       </c>
       <c r="E38" s="63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="10.8" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D39" s="64">
         <v>4225</v>
       </c>
       <c r="E39" s="65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:11" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="180" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:11" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="184" t="s">
+      <c r="B41" s="180"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="180"/>
+      <c r="H41" s="180"/>
+      <c r="I41" s="180"/>
+      <c r="J41" s="180"/>
+      <c r="K41" s="180"/>
+    </row>
+    <row r="42" spans="1:11" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="184"/>
-      <c r="C41" s="184"/>
-      <c r="D41" s="184"/>
-      <c r="E41" s="184"/>
-      <c r="F41" s="184"/>
-      <c r="G41" s="184"/>
-      <c r="H41" s="184"/>
-      <c r="I41" s="184"/>
-      <c r="J41" s="184"/>
-      <c r="K41" s="184"/>
-    </row>
-    <row r="42" spans="1:11" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="185" t="s">
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="181"/>
+      <c r="G42" s="181"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="181"/>
+      <c r="K42" s="181"/>
+    </row>
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="182" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="182"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="182"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="182"/>
+      <c r="H43" s="182"/>
+      <c r="I43" s="182"/>
+      <c r="J43" s="182"/>
+      <c r="K43" s="182"/>
+    </row>
+    <row r="44" spans="1:11" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="183" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="185"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="185"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="185"/>
-      <c r="I42" s="185"/>
-      <c r="J42" s="185"/>
-      <c r="K42" s="185"/>
-    </row>
-    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="186" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="186"/>
-      <c r="C43" s="186"/>
-      <c r="D43" s="186"/>
-      <c r="E43" s="186"/>
-      <c r="F43" s="186"/>
-      <c r="G43" s="186"/>
-      <c r="H43" s="186"/>
-      <c r="I43" s="186"/>
-      <c r="J43" s="186"/>
-      <c r="K43" s="186"/>
-    </row>
-    <row r="44" spans="1:11" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="187" t="s">
+      <c r="B44" s="183"/>
+      <c r="C44" s="183"/>
+      <c r="D44" s="183"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="183"/>
+      <c r="G44" s="183"/>
+      <c r="H44" s="183"/>
+      <c r="I44" s="183"/>
+      <c r="J44" s="183"/>
+      <c r="K44" s="183"/>
+    </row>
+    <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="174" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="187"/>
-      <c r="C44" s="187"/>
-      <c r="D44" s="187"/>
-      <c r="E44" s="187"/>
-      <c r="F44" s="187"/>
-      <c r="G44" s="187"/>
-      <c r="H44" s="187"/>
-      <c r="I44" s="187"/>
-      <c r="J44" s="187"/>
-      <c r="K44" s="187"/>
-    </row>
-    <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="179" t="s">
+      <c r="B46" s="175"/>
+      <c r="C46" s="175"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="175"/>
+      <c r="J46" s="175"/>
+      <c r="K46" s="175"/>
+    </row>
+    <row r="47" spans="1:11" s="66" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="180"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="180"/>
-      <c r="F46" s="180"/>
-      <c r="G46" s="180"/>
-      <c r="H46" s="180"/>
-      <c r="I46" s="180"/>
-      <c r="J46" s="180"/>
-      <c r="K46" s="180"/>
-    </row>
-    <row r="47" spans="1:11" s="66" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76" t="s">
+      <c r="B47" s="75"/>
+      <c r="C47" s="176" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="181" t="s">
+      <c r="D47" s="176"/>
+      <c r="E47" s="176"/>
+      <c r="F47" s="176"/>
+      <c r="G47" s="176"/>
+      <c r="H47" s="176"/>
+      <c r="I47" s="176"/>
+      <c r="J47" s="176"/>
+      <c r="K47" s="176"/>
+    </row>
+    <row r="48" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="179"/>
+      <c r="B48" s="179" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="D47" s="181"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="181"/>
-      <c r="G47" s="181"/>
-      <c r="H47" s="181"/>
-      <c r="I47" s="181"/>
-      <c r="J47" s="181"/>
-      <c r="K47" s="181"/>
-    </row>
-    <row r="48" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="174"/>
-      <c r="B48" s="174" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="174" t="s">
+      <c r="D48" s="179" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="174" t="s">
+      <c r="E48" s="179" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="179" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="174" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" s="174" t="s">
+      <c r="G48" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" s="186" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="174" t="s">
-        <v>99</v>
-      </c>
-      <c r="H48" s="175" t="s">
+      <c r="I48" s="187"/>
+      <c r="J48" s="187"/>
+      <c r="K48" s="187"/>
+    </row>
+    <row r="49" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="179"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="179"/>
+      <c r="D49" s="179"/>
+      <c r="E49" s="179"/>
+      <c r="F49" s="179"/>
+      <c r="G49" s="179"/>
+      <c r="H49" s="177" t="s">
         <v>126</v>
       </c>
-      <c r="I48" s="176"/>
-      <c r="J48" s="176"/>
-      <c r="K48" s="176"/>
-    </row>
-    <row r="49" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="174"/>
-      <c r="B49" s="174"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
-      <c r="E49" s="174"/>
-      <c r="F49" s="174"/>
-      <c r="G49" s="174"/>
-      <c r="H49" s="182" t="s">
+      <c r="I49" s="178"/>
+      <c r="J49" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="I49" s="183"/>
-      <c r="J49" s="68" t="s">
+      <c r="K49" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="K49" s="68" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="67" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" s="67" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A50" s="95">
         <v>1</v>
       </c>
       <c r="B50" s="96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C50" s="69">
         <v>45553</v>
       </c>
       <c r="D50" s="70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F50" s="71" t="str">
         <f>IF(OR((CODE($D50)*CODE($E50))=$D$36,(CODE($D50)*CODE($E50))=$D$35),$D$15,IF(OR((CODE($D50)*CODE($E50))=$D$34,(CODE($D50)*CODE($E50))=$D$37),$D$16,IF(OR((CODE($D50)*CODE($E50))=$D$38,(CODE($D50)*CODE($E50))=$D$39),$D$17,)))</f>
         <v>Alta</v>
       </c>
       <c r="G50" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="H50" s="172"/>
-      <c r="I50" s="173"/>
+        <v>99</v>
+      </c>
+      <c r="H50" s="184"/>
+      <c r="I50" s="185"/>
       <c r="J50" s="74"/>
       <c r="K50" s="74" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="95">
         <v>2</v>
       </c>
       <c r="B51" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C51" s="69">
         <v>45553</v>
       </c>
       <c r="D51" s="70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F51" s="71" t="str">
         <f t="shared" ref="F51:F58" si="0">IF(OR((CODE($D51)*CODE($E51))=$D$36,(CODE($D51)*CODE($E51))=$D$35),$D$15,IF(OR((CODE($D51)*CODE($E51))=$D$34,(CODE($D51)*CODE($E51))=$D$37),$D$16,IF(OR((CODE($D51)*CODE($E51))=$D$38,(CODE($D51)*CODE($E51))=$D$39),$D$17,)))</f>
         <v>Média</v>
       </c>
       <c r="G51" s="70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H51" s="72"/>
       <c r="I51" s="73"/>
       <c r="J51" s="74"/>
       <c r="K51" s="74"/>
     </row>
-    <row r="52" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="95"/>
       <c r="B52" s="96"/>
       <c r="C52" s="69"/>
@@ -19265,7 +19298,7 @@
       <c r="J52" s="74"/>
       <c r="K52" s="74"/>
     </row>
-    <row r="53" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="95"/>
       <c r="B53" s="96"/>
       <c r="C53" s="69"/>
@@ -19281,7 +19314,7 @@
       <c r="J53" s="74"/>
       <c r="K53" s="74"/>
     </row>
-    <row r="54" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="95"/>
       <c r="B54" s="96"/>
       <c r="C54" s="69"/>
@@ -19297,7 +19330,7 @@
       <c r="J54" s="74"/>
       <c r="K54" s="74"/>
     </row>
-    <row r="55" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="95"/>
       <c r="B55" s="96"/>
       <c r="C55" s="69"/>
@@ -19313,7 +19346,7 @@
       <c r="J55" s="74"/>
       <c r="K55" s="74"/>
     </row>
-    <row r="56" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="95"/>
       <c r="B56" s="96"/>
       <c r="C56" s="69"/>
@@ -19329,7 +19362,7 @@
       <c r="J56" s="74"/>
       <c r="K56" s="74"/>
     </row>
-    <row r="57" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="95"/>
       <c r="B57" s="96"/>
       <c r="C57" s="69"/>
@@ -19345,7 +19378,7 @@
       <c r="J57" s="74"/>
       <c r="K57" s="74"/>
     </row>
-    <row r="58" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="95"/>
       <c r="B58" s="96"/>
       <c r="C58" s="69"/>
@@ -19361,7 +19394,7 @@
       <c r="J58" s="74"/>
       <c r="K58" s="74"/>
     </row>
-    <row r="59" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="95"/>
       <c r="B59" s="96"/>
       <c r="C59" s="69"/>
@@ -19372,12 +19405,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="70"/>
-      <c r="H59" s="172"/>
-      <c r="I59" s="173"/>
+      <c r="H59" s="184"/>
+      <c r="I59" s="185"/>
       <c r="J59" s="74"/>
       <c r="K59" s="74"/>
     </row>
-    <row r="60" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="95"/>
       <c r="B60" s="96"/>
       <c r="C60" s="69"/>
@@ -19388,13 +19421,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="70"/>
-      <c r="H60" s="172"/>
-      <c r="I60" s="173"/>
+      <c r="H60" s="184"/>
+      <c r="I60" s="185"/>
       <c r="J60" s="74"/>
       <c r="K60" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:K48"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A46:K46"/>
@@ -19406,15 +19448,6 @@
     <mergeCell ref="A42:K42"/>
     <mergeCell ref="A43:K43"/>
     <mergeCell ref="A44:K44"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:K48"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -19455,60 +19488,60 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="6.5546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="188" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B1" s="189"/>
       <c r="C1" s="189"/>
       <c r="D1" s="189"/>
     </row>
-    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A2" s="79"/>
       <c r="B2" s="80"/>
       <c r="C2" s="168" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="168"/>
     </row>
-    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A3" s="84" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="D3" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="D3" s="84" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A4" s="86">
         <v>1</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="88">
         <v>45609</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A5" s="86">
         <v>2</v>
       </c>
@@ -19516,7 +19549,7 @@
       <c r="C5" s="88"/>
       <c r="D5" s="70"/>
     </row>
-    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" s="86">
         <v>3</v>
       </c>
@@ -19524,7 +19557,7 @@
       <c r="C6" s="88"/>
       <c r="D6" s="70"/>
     </row>
-    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A7" s="86">
         <v>4</v>
       </c>
@@ -19532,7 +19565,7 @@
       <c r="C7" s="88"/>
       <c r="D7" s="70"/>
     </row>
-    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A8" s="86">
         <v>5</v>
       </c>
@@ -19540,7 +19573,7 @@
       <c r="C8" s="88"/>
       <c r="D8" s="70"/>
     </row>
-    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A9" s="86">
         <v>6</v>
       </c>
@@ -19548,7 +19581,7 @@
       <c r="C9" s="88"/>
       <c r="D9" s="70"/>
     </row>
-    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A10" s="86">
         <v>7</v>
       </c>
@@ -19556,7 +19589,7 @@
       <c r="C10" s="88"/>
       <c r="D10" s="70"/>
     </row>
-    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" s="86">
         <v>8</v>
       </c>
@@ -19564,7 +19597,7 @@
       <c r="C11" s="88"/>
       <c r="D11" s="70"/>
     </row>
-    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" s="86">
         <v>9</v>
       </c>
@@ -19572,7 +19605,7 @@
       <c r="C12" s="88"/>
       <c r="D12" s="70"/>
     </row>
-    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A13" s="86">
         <v>10</v>
       </c>
@@ -19580,13 +19613,13 @@
       <c r="C13" s="88"/>
       <c r="D13" s="70"/>
     </row>
-    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="29"/>
       <c r="C14" s="31"/>
       <c r="D14" s="29"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="C15" s="22"/>
     </row>
@@ -19620,23 +19653,23 @@
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="12" width="7" style="3" customWidth="1"/>
-    <col min="13" max="13" width="1.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.44140625" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="42">
         <v>45553</v>
@@ -19669,9 +19702,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="117" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="15">
         <v>2</v>
@@ -19689,9 +19722,9 @@
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="117" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="15">
         <v>2</v>
@@ -19709,9 +19742,9 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="117" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="15">
         <v>2</v>
@@ -19729,9 +19762,9 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="117" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" s="15">
         <v>2</v>
@@ -19749,9 +19782,9 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
@@ -19771,9 +19804,9 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="117" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" s="15">
         <v>2</v>
@@ -19793,7 +19826,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -19807,7 +19840,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -19821,7 +19854,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -19835,7 +19868,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -19849,7 +19882,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>30</v>
       </c>
@@ -19899,7 +19932,7 @@
       </c>
       <c r="M12" s="32"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>31</v>
       </c>
@@ -19948,9 +19981,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="39">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
@@ -19997,9 +20030,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="40">
         <f ca="1">B14/$B$13</f>
@@ -20046,9 +20079,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="43">
         <v>24</v>
@@ -20057,12 +20090,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N19" s="14" t="s">
         <v>42</v>
       </c>
       <c r="O19" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -20081,23 +20114,23 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="12" width="7" style="3" customWidth="1"/>
-    <col min="13" max="13" width="1.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.44140625" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="42">
         <v>45560</v>
@@ -20130,9 +20163,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="128">
         <v>1</v>
@@ -20150,9 +20183,9 @@
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="117" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="128">
         <v>10</v>
@@ -20174,9 +20207,9 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="120" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="128">
         <v>2</v>
@@ -20194,9 +20227,9 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="135" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" s="128">
         <v>2</v>
@@ -20214,9 +20247,9 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="136" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B6" s="128">
         <v>2</v>
@@ -20234,9 +20267,9 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="136" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" s="128">
         <v>4</v>
@@ -20256,9 +20289,9 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="128">
         <v>2</v>
@@ -20276,9 +20309,9 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" s="128">
         <v>5</v>
@@ -20296,9 +20329,9 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="120" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="128">
         <v>2</v>
@@ -20316,9 +20349,9 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="128">
         <v>2</v>
@@ -20336,7 +20369,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>30</v>
       </c>
@@ -20386,7 +20419,7 @@
       </c>
       <c r="M12" s="32"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>31</v>
       </c>
@@ -20435,9 +20468,9 @@
         <v>4.4408920985006262E-15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="39">
         <f ca="1">OFFSET(Sprint2!$B$12,0,0,1,COUNT(Sprint2!$B$12:$L$12))</f>
@@ -20484,9 +20517,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="40">
         <f ca="1">B14/$B$13</f>
@@ -20533,9 +20566,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="43">
         <v>36</v>
@@ -20544,12 +20577,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="14:15" x14ac:dyDescent="0.3">
       <c r="N19" s="14" t="s">
         <v>42</v>
       </c>
       <c r="O19" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -20568,23 +20601,23 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="12" width="7" style="3" customWidth="1"/>
-    <col min="13" max="13" width="1.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.44140625" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="42">
         <v>45572</v>
@@ -20617,9 +20650,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="128">
         <v>1</v>
@@ -20637,9 +20670,9 @@
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" s="128">
         <v>2</v>
@@ -20657,9 +20690,9 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B4" s="128">
         <v>2</v>
@@ -20677,9 +20710,9 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="135" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" s="128">
         <v>1</v>
@@ -20697,9 +20730,9 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="136" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" s="128">
         <v>2</v>
@@ -20717,9 +20750,9 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="136" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B7" s="128">
         <v>3</v>
@@ -20739,9 +20772,9 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="128">
         <v>2</v>
@@ -20759,9 +20792,9 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="128">
         <v>1</v>
@@ -20779,9 +20812,9 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="135" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B10" s="128">
         <v>1</v>
@@ -20799,9 +20832,9 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="136" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="128">
         <v>2</v>
@@ -20819,9 +20852,9 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="136" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" s="128">
         <v>4</v>
@@ -20841,9 +20874,9 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="128">
         <v>2</v>
@@ -20861,9 +20894,9 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" s="128">
         <v>2</v>
@@ -20881,7 +20914,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
         <v>30</v>
       </c>
@@ -20931,7 +20964,7 @@
       </c>
       <c r="M15" s="32"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>31</v>
       </c>
@@ -20980,9 +21013,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="39">
         <f ca="1">OFFSET(Sprint3!$B$15,0,0,1,COUNT(Sprint3!$B$15:$L$15))</f>
@@ -21029,9 +21062,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="40">
         <f ca="1">B17/$B$16</f>
@@ -21078,9 +21111,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="43">
         <v>24</v>
@@ -21089,12 +21122,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N22" s="14" t="s">
         <v>42</v>
       </c>
       <c r="O22" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Gerenciamento de Projeto/AGP - Planejamento e Controle do Projeto.xlsx
+++ b/Gerenciamento de Projeto/AGP - Planejamento e Controle do Projeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\AGP\Gerenciamento de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1A81E4-A036-423C-BA51-C04862F9D315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6BF690-2B12-4CBA-A3EF-290D0E48B65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="797" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="10" r:id="rId1"/>
@@ -3398,9 +3398,6 @@
     <t>A priorização é importante para saber o que entregar primeiro ou desenvolver primeiro. O Owner ou o próprio cliente são importantes nessa decisão. Isso vai ajudar a planejar os Sprints.</t>
   </si>
   <si>
-    <t>Visão, modelo de caso de uso e plano</t>
-  </si>
-  <si>
     <t>sprints</t>
   </si>
   <si>
@@ -3569,18 +3566,6 @@
     <t>1.5 em média</t>
   </si>
   <si>
-    <t>Fase de Elaboração e inicio UC01</t>
-  </si>
-  <si>
-    <t>Finalizar UC01, UC02 e UC03</t>
-  </si>
-  <si>
-    <t>UC04, UC05, UC06</t>
-  </si>
-  <si>
-    <t>UC07, UC08</t>
-  </si>
-  <si>
     <t>Fase de Transição</t>
   </si>
   <si>
@@ -3606,6 +3591,21 @@
   </si>
   <si>
     <t>Dia 15</t>
+  </si>
+  <si>
+    <t>Fase de Elaboração</t>
+  </si>
+  <si>
+    <t>Fase de Construção 2 (UC04, UC05, UC06)</t>
+  </si>
+  <si>
+    <t>Fase de Construção 3 (UC07, UC08)</t>
+  </si>
+  <si>
+    <t>Fase de Construção 1 (Finalizar UC01, UC02 e UC03)</t>
+  </si>
+  <si>
+    <t>Fase de Iniciação</t>
   </si>
 </sst>
 </file>
@@ -4842,6 +4842,21 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4863,9 +4878,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4877,18 +4889,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12862,7 +12862,7 @@
     </row>
     <row r="2" spans="1:3" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="147" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="147"/>
       <c r="C2" s="147"/>
@@ -12883,21 +12883,21 @@
         <v>44</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="144" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" s="144" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -12905,10 +12905,10 @@
         <v>45</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" s="144" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -12916,10 +12916,10 @@
         <v>45</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C7" s="144" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -13044,19 +13044,19 @@
         <v>40</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="P1" s="41" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -13086,7 +13086,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="135" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" s="128">
         <v>1</v>
@@ -13111,7 +13111,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="136" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" s="128">
         <v>2</v>
@@ -13136,7 +13136,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="136" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" s="128">
         <v>3</v>
@@ -13163,7 +13163,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="136" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" s="128">
         <v>2</v>
@@ -13188,7 +13188,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="136" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" s="128">
         <v>1</v>
@@ -13213,7 +13213,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="135" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="128">
         <v>2</v>
@@ -13238,7 +13238,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" s="128">
         <v>2</v>
@@ -13265,7 +13265,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B10" s="128">
         <v>5</v>
@@ -13292,7 +13292,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B11" s="128">
         <v>3</v>
@@ -13319,7 +13319,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12" s="128">
         <v>2</v>
@@ -13344,7 +13344,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="135" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B13" s="128">
         <v>1</v>
@@ -13369,7 +13369,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="136" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B14" s="128">
         <v>2</v>
@@ -13396,7 +13396,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B15" s="128">
         <v>3</v>
@@ -13423,7 +13423,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="136" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B16" s="128">
         <v>2</v>
@@ -13450,7 +13450,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="136" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B17" s="128">
         <v>1</v>
@@ -13855,7 +13855,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="135" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3" s="128">
         <v>2</v>
@@ -13877,7 +13877,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="136" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" s="128">
         <v>2</v>
@@ -13897,7 +13897,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="136" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B5" s="128">
         <v>3</v>
@@ -13919,7 +13919,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="136" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="128">
         <v>2</v>
@@ -13939,7 +13939,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B7" s="128">
         <v>1</v>
@@ -13959,7 +13959,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="135" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B8" s="128">
         <v>1</v>
@@ -13979,7 +13979,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B9" s="128">
         <v>1</v>
@@ -13999,7 +13999,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B10" s="128">
         <v>2</v>
@@ -14019,7 +14019,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="136" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11" s="128">
         <v>1</v>
@@ -14039,7 +14039,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B12" s="128">
         <v>1</v>
@@ -15989,7 +15989,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16016,7 +16016,7 @@
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4" s="141">
         <f>'Backlog Produto'!$D$76</f>
@@ -16078,7 +16078,7 @@
         <v>4.1000000000000005</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -16217,7 +16217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -16345,7 +16345,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="117" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H5" s="125">
         <v>5</v>
@@ -16381,7 +16381,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="117" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H6" s="125">
         <v>4</v>
@@ -16417,7 +16417,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="117" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H7" s="125">
         <v>5</v>
@@ -16453,7 +16453,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="117" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H8" s="125">
         <v>4</v>
@@ -16489,7 +16489,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="117" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H9" s="125">
         <v>7</v>
@@ -16525,7 +16525,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="117" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H10" s="125">
         <v>5</v>
@@ -16558,7 +16558,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="117" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H11" s="125">
         <v>5</v>
@@ -16594,7 +16594,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="117" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H12" s="125">
         <v>4</v>
@@ -16669,7 +16669,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="135" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D15" s="128">
         <v>2</v>
@@ -16693,7 +16693,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="136" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D16" s="128">
         <v>2</v>
@@ -16898,7 +16898,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="135" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D26" s="128">
         <v>1</v>
@@ -16968,7 +16968,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="135" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D31" s="128">
         <v>1</v>
@@ -17050,7 +17050,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="135" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D37" s="128">
         <v>1</v>
@@ -17064,7 +17064,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="136" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D38" s="128">
         <v>2</v>
@@ -17078,7 +17078,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="136" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D39" s="128">
         <v>3</v>
@@ -17092,7 +17092,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="136" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D40" s="128">
         <v>2</v>
@@ -17106,7 +17106,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="136" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D41" s="128">
         <v>1</v>
@@ -17120,7 +17120,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="135" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D42" s="128">
         <v>2</v>
@@ -17134,7 +17134,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="136" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D43" s="128">
         <v>2</v>
@@ -17148,7 +17148,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="136" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D44" s="128">
         <v>5</v>
@@ -17162,7 +17162,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D45" s="128">
         <v>3</v>
@@ -17176,7 +17176,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D46" s="128">
         <v>2</v>
@@ -17190,7 +17190,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="135" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D47" s="128">
         <v>1</v>
@@ -17204,7 +17204,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="136" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D48" s="128">
         <v>2</v>
@@ -17218,7 +17218,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D49" s="128">
         <v>3</v>
@@ -17232,7 +17232,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="136" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D50" s="128">
         <v>2</v>
@@ -17246,7 +17246,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="136" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D51" s="128">
         <v>1</v>
@@ -17272,7 +17272,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="135" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D53" s="128">
         <v>2</v>
@@ -17286,7 +17286,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="136" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D54" s="128">
         <v>2</v>
@@ -17300,7 +17300,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="136" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D55" s="128">
         <v>3</v>
@@ -17314,7 +17314,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="136" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D56" s="128">
         <v>2</v>
@@ -17328,7 +17328,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D57" s="128">
         <v>1</v>
@@ -17342,7 +17342,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="135" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D58" s="128">
         <v>1</v>
@@ -17356,7 +17356,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="136" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D59" s="128">
         <v>1</v>
@@ -17370,7 +17370,7 @@
         <v>2</v>
       </c>
       <c r="C60" s="136" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D60" s="128">
         <v>2</v>
@@ -17384,7 +17384,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="136" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D61" s="128">
         <v>1</v>
@@ -17398,7 +17398,7 @@
         <v>2</v>
       </c>
       <c r="C62" s="136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D62" s="128">
         <v>1</v>
@@ -17608,8 +17608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -17671,7 +17671,7 @@
     <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
       <c r="B3" s="80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" s="168" t="s">
         <v>71</v>
@@ -17727,7 +17727,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="C5" s="88">
         <v>45553</v>
@@ -17739,7 +17739,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G5" s="88">
         <v>45553</v>
@@ -17758,7 +17758,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C6" s="88">
         <v>45560</v>
@@ -17770,7 +17770,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G6" s="88">
         <v>45560</v>
@@ -17789,7 +17789,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C7" s="88">
         <v>45572</v>
@@ -17801,7 +17801,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G7" s="88">
         <v>45572</v>
@@ -17820,7 +17820,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C8" s="88">
         <v>45579</v>
@@ -17832,7 +17832,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G8" s="88">
         <v>45580</v>
@@ -17851,7 +17851,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C9" s="88">
         <v>45595</v>
@@ -17863,7 +17863,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G9" s="88">
         <v>45596</v>
@@ -17882,7 +17882,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C10" s="88">
         <v>45609</v>
@@ -17894,7 +17894,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G10" s="88">
         <v>45610</v>
@@ -19031,10 +19031,10 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="172" t="s">
+      <c r="D33" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="173"/>
+      <c r="E33" s="178"/>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D34" s="62">
@@ -19086,137 +19086,137 @@
     </row>
     <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:11" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="180" t="s">
+      <c r="A41" s="184" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="180"/>
-      <c r="C41" s="180"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="180"/>
-      <c r="F41" s="180"/>
-      <c r="G41" s="180"/>
-      <c r="H41" s="180"/>
-      <c r="I41" s="180"/>
-      <c r="J41" s="180"/>
-      <c r="K41" s="180"/>
+      <c r="B41" s="184"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="184"/>
+      <c r="E41" s="184"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="184"/>
+      <c r="H41" s="184"/>
+      <c r="I41" s="184"/>
+      <c r="J41" s="184"/>
+      <c r="K41" s="184"/>
     </row>
     <row r="42" spans="1:11" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="181" t="s">
+      <c r="A42" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="181"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="181"/>
-      <c r="J42" s="181"/>
-      <c r="K42" s="181"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="185"/>
+      <c r="D42" s="185"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="185"/>
+      <c r="G42" s="185"/>
+      <c r="H42" s="185"/>
+      <c r="I42" s="185"/>
+      <c r="J42" s="185"/>
+      <c r="K42" s="185"/>
     </row>
     <row r="43" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="182" t="s">
+      <c r="A43" s="186" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="182"/>
-      <c r="C43" s="182"/>
-      <c r="D43" s="182"/>
-      <c r="E43" s="182"/>
-      <c r="F43" s="182"/>
-      <c r="G43" s="182"/>
-      <c r="H43" s="182"/>
-      <c r="I43" s="182"/>
-      <c r="J43" s="182"/>
-      <c r="K43" s="182"/>
+      <c r="B43" s="186"/>
+      <c r="C43" s="186"/>
+      <c r="D43" s="186"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="186"/>
+      <c r="G43" s="186"/>
+      <c r="H43" s="186"/>
+      <c r="I43" s="186"/>
+      <c r="J43" s="186"/>
+      <c r="K43" s="186"/>
     </row>
     <row r="44" spans="1:11" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="183" t="s">
+      <c r="A44" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="183"/>
-      <c r="C44" s="183"/>
-      <c r="D44" s="183"/>
-      <c r="E44" s="183"/>
-      <c r="F44" s="183"/>
-      <c r="G44" s="183"/>
-      <c r="H44" s="183"/>
-      <c r="I44" s="183"/>
-      <c r="J44" s="183"/>
-      <c r="K44" s="183"/>
+      <c r="B44" s="187"/>
+      <c r="C44" s="187"/>
+      <c r="D44" s="187"/>
+      <c r="E44" s="187"/>
+      <c r="F44" s="187"/>
+      <c r="G44" s="187"/>
+      <c r="H44" s="187"/>
+      <c r="I44" s="187"/>
+      <c r="J44" s="187"/>
+      <c r="K44" s="187"/>
     </row>
     <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="174" t="s">
+      <c r="A46" s="179" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="175"/>
-      <c r="C46" s="175"/>
-      <c r="D46" s="175"/>
-      <c r="E46" s="175"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="175"/>
-      <c r="H46" s="175"/>
-      <c r="I46" s="175"/>
-      <c r="J46" s="175"/>
-      <c r="K46" s="175"/>
+      <c r="B46" s="180"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="180"/>
+      <c r="G46" s="180"/>
+      <c r="H46" s="180"/>
+      <c r="I46" s="180"/>
+      <c r="J46" s="180"/>
+      <c r="K46" s="180"/>
     </row>
     <row r="47" spans="1:11" s="66" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="76" t="s">
         <v>120</v>
       </c>
       <c r="B47" s="75"/>
-      <c r="C47" s="176" t="s">
+      <c r="C47" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="176"/>
-      <c r="E47" s="176"/>
-      <c r="F47" s="176"/>
-      <c r="G47" s="176"/>
-      <c r="H47" s="176"/>
-      <c r="I47" s="176"/>
-      <c r="J47" s="176"/>
-      <c r="K47" s="176"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="181"/>
+      <c r="G47" s="181"/>
+      <c r="H47" s="181"/>
+      <c r="I47" s="181"/>
+      <c r="J47" s="181"/>
+      <c r="K47" s="181"/>
     </row>
     <row r="48" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="179"/>
-      <c r="B48" s="179" t="s">
+      <c r="A48" s="174"/>
+      <c r="B48" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="179" t="s">
+      <c r="C48" s="174" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="179" t="s">
+      <c r="D48" s="174" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="179" t="s">
+      <c r="E48" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="179" t="s">
+      <c r="F48" s="174" t="s">
         <v>124</v>
       </c>
-      <c r="G48" s="179" t="s">
+      <c r="G48" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="H48" s="186" t="s">
+      <c r="H48" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="I48" s="187"/>
-      <c r="J48" s="187"/>
-      <c r="K48" s="187"/>
+      <c r="I48" s="176"/>
+      <c r="J48" s="176"/>
+      <c r="K48" s="176"/>
     </row>
     <row r="49" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="179"/>
-      <c r="B49" s="179"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="179"/>
-      <c r="E49" s="179"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="179"/>
-      <c r="H49" s="177" t="s">
+      <c r="A49" s="174"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
+      <c r="E49" s="174"/>
+      <c r="F49" s="174"/>
+      <c r="G49" s="174"/>
+      <c r="H49" s="182" t="s">
         <v>126</v>
       </c>
-      <c r="I49" s="178"/>
+      <c r="I49" s="183"/>
       <c r="J49" s="68" t="s">
         <v>127</v>
       </c>
@@ -19247,8 +19247,8 @@
       <c r="G50" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H50" s="184"/>
-      <c r="I50" s="185"/>
+      <c r="H50" s="172"/>
+      <c r="I50" s="173"/>
       <c r="J50" s="74"/>
       <c r="K50" s="74" t="s">
         <v>133</v>
@@ -19259,7 +19259,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="96" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C51" s="69">
         <v>45553</v>
@@ -19405,8 +19405,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="70"/>
-      <c r="H59" s="184"/>
-      <c r="I59" s="185"/>
+      <c r="H59" s="172"/>
+      <c r="I59" s="173"/>
       <c r="J59" s="74"/>
       <c r="K59" s="74"/>
     </row>
@@ -19421,22 +19421,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="G60" s="70"/>
-      <c r="H60" s="184"/>
-      <c r="I60" s="185"/>
+      <c r="H60" s="172"/>
+      <c r="I60" s="173"/>
       <c r="J60" s="74"/>
       <c r="K60" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:K48"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A46:K46"/>
@@ -19448,6 +19439,15 @@
     <mergeCell ref="A42:K42"/>
     <mergeCell ref="A43:K43"/>
     <mergeCell ref="A44:K44"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:K48"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -19499,7 +19499,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="188" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" s="189"/>
       <c r="C1" s="189"/>
@@ -19518,13 +19518,13 @@
         <v>220</v>
       </c>
       <c r="B3" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="D3" s="84" t="s">
         <v>247</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
@@ -19532,13 +19532,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C4" s="88">
         <v>45609</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
@@ -20229,7 +20229,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="135" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" s="128">
         <v>2</v>
@@ -20249,7 +20249,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="136" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" s="128">
         <v>2</v>
@@ -20712,7 +20712,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="135" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" s="128">
         <v>1</v>
@@ -20814,7 +20814,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="135" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" s="128">
         <v>1</v>
